--- a/scrapers/cot_consolidated_data.xlsx
+++ b/scrapers/cot_consolidated_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U55"/>
+  <dimension ref="A1:U46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,46 +552,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153390</v>
+        <v>150487</v>
       </c>
       <c r="C2" t="n">
-        <v>23272</v>
+        <v>21233</v>
       </c>
       <c r="D2" t="n">
-        <v>97586</v>
+        <v>96152</v>
       </c>
       <c r="E2" t="n">
-        <v>95712</v>
+        <v>97063</v>
       </c>
       <c r="F2" t="n">
-        <v>27567</v>
+        <v>24535</v>
       </c>
       <c r="G2" t="n">
-        <v>26168</v>
+        <v>24040</v>
       </c>
       <c r="H2" t="n">
-        <v>19999</v>
+        <v>21649</v>
       </c>
       <c r="I2" t="n">
-        <v>48396</v>
+        <v>52164</v>
       </c>
       <c r="J2" t="n">
-        <v>3355</v>
+        <v>2516</v>
       </c>
       <c r="K2" t="n">
-        <v>41225</v>
+        <v>39485</v>
       </c>
       <c r="L2" t="n">
-        <v>79471</v>
+        <v>77968</v>
       </c>
       <c r="M2" t="n">
-        <v>21932</v>
+        <v>19728</v>
       </c>
       <c r="N2" t="n">
-        <v>39382</v>
+        <v>37336</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>45846</v>
+        <v>45853</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="R2" t="n">
-        <v>23272</v>
+        <v>21233</v>
       </c>
       <c r="S2" t="n">
-        <v>97586</v>
+        <v>96152</v>
       </c>
       <c r="T2" t="n">
-        <v>-74314</v>
+        <v>-74919</v>
       </c>
       <c r="U2" t="n">
-        <v>-48.45</v>
+        <v>-49.78</v>
       </c>
     </row>
     <row r="3">
@@ -623,46 +623,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100849</v>
+        <v>95160</v>
       </c>
       <c r="C3" t="n">
-        <v>65516</v>
+        <v>60809</v>
       </c>
       <c r="D3" t="n">
-        <v>16546</v>
+        <v>36637</v>
       </c>
       <c r="E3" t="n">
-        <v>29342</v>
+        <v>28965</v>
       </c>
       <c r="F3" t="n">
-        <v>82513</v>
+        <v>57033</v>
       </c>
       <c r="G3" t="n">
-        <v>5226</v>
+        <v>4761</v>
       </c>
       <c r="H3" t="n">
-        <v>1025</v>
+        <v>865</v>
       </c>
       <c r="I3" t="n">
-        <v>4122</v>
+        <v>1687</v>
       </c>
       <c r="J3" t="n">
-        <v>31597</v>
+        <v>45040</v>
       </c>
       <c r="K3" t="n">
-        <v>70018</v>
+        <v>67790</v>
       </c>
       <c r="L3" t="n">
-        <v>939</v>
+        <v>753</v>
       </c>
       <c r="M3" t="n">
-        <v>17856</v>
+        <v>17026</v>
       </c>
       <c r="N3" t="n">
-        <v>17731</v>
+        <v>24673</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>45846</v>
+        <v>45853</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -675,16 +675,16 @@
         </is>
       </c>
       <c r="R3" t="n">
-        <v>65516</v>
+        <v>60809</v>
       </c>
       <c r="S3" t="n">
-        <v>16546</v>
+        <v>36637</v>
       </c>
       <c r="T3" t="n">
-        <v>48970</v>
+        <v>24172</v>
       </c>
       <c r="U3" t="n">
-        <v>48.56</v>
+        <v>25.4</v>
       </c>
     </row>
     <row r="4">
@@ -694,46 +694,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201326</v>
+        <v>202720</v>
       </c>
       <c r="C4" t="n">
-        <v>20344</v>
+        <v>21924</v>
       </c>
       <c r="D4" t="n">
-        <v>91952</v>
+        <v>96018</v>
       </c>
       <c r="E4" t="n">
-        <v>140689</v>
+        <v>141093</v>
       </c>
       <c r="F4" t="n">
-        <v>71995</v>
+        <v>68327</v>
       </c>
       <c r="G4" t="n">
-        <v>28631</v>
+        <v>27836</v>
       </c>
       <c r="H4" t="n">
-        <v>25717</v>
+        <v>26508</v>
       </c>
       <c r="I4" t="n">
-        <v>89992</v>
+        <v>94000</v>
       </c>
       <c r="J4" t="n">
-        <v>27779</v>
+        <v>24896</v>
       </c>
       <c r="K4" t="n">
-        <v>38868</v>
+        <v>36258</v>
       </c>
       <c r="L4" t="n">
-        <v>81477</v>
+        <v>87009</v>
       </c>
       <c r="M4" t="n">
-        <v>17728</v>
+        <v>18796</v>
       </c>
       <c r="N4" t="n">
-        <v>46507</v>
+        <v>44516</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>45846</v>
+        <v>45853</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -746,16 +746,16 @@
         </is>
       </c>
       <c r="R4" t="n">
-        <v>20344</v>
+        <v>21924</v>
       </c>
       <c r="S4" t="n">
-        <v>91952</v>
+        <v>96018</v>
       </c>
       <c r="T4" t="n">
-        <v>-71608</v>
+        <v>-74094</v>
       </c>
       <c r="U4" t="n">
-        <v>-35.57</v>
+        <v>-36.55</v>
       </c>
     </row>
     <row r="5">
@@ -765,46 +765,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>72761</v>
+        <v>74255</v>
       </c>
       <c r="C5" t="n">
-        <v>8488</v>
+        <v>9959</v>
       </c>
       <c r="D5" t="n">
-        <v>30684</v>
+        <v>32596</v>
       </c>
       <c r="E5" t="n">
-        <v>48057</v>
+        <v>49559</v>
       </c>
       <c r="F5" t="n">
-        <v>27280</v>
+        <v>26543</v>
       </c>
       <c r="G5" t="n">
-        <v>16140</v>
+        <v>14677</v>
       </c>
       <c r="H5" t="n">
-        <v>14721</v>
+        <v>15056</v>
       </c>
       <c r="I5" t="n">
-        <v>40949</v>
+        <v>43716</v>
       </c>
       <c r="J5" t="n">
-        <v>5715</v>
+        <v>8416</v>
       </c>
       <c r="K5" t="n">
-        <v>6487</v>
+        <v>6449</v>
       </c>
       <c r="L5" t="n">
-        <v>43761</v>
+        <v>40471</v>
       </c>
       <c r="M5" t="n">
-        <v>6872</v>
+        <v>7129</v>
       </c>
       <c r="N5" t="n">
-        <v>6535</v>
+        <v>8372</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>45846</v>
+        <v>45853</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
@@ -817,16 +817,16 @@
         </is>
       </c>
       <c r="R5" t="n">
-        <v>8488</v>
+        <v>9959</v>
       </c>
       <c r="S5" t="n">
-        <v>30684</v>
+        <v>32596</v>
       </c>
       <c r="T5" t="n">
-        <v>-22196</v>
+        <v>-22637</v>
       </c>
       <c r="U5" t="n">
-        <v>-30.51</v>
+        <v>-30.49</v>
       </c>
     </row>
     <row r="6">
@@ -836,46 +836,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>805847</v>
+        <v>820440</v>
       </c>
       <c r="C6" t="n">
-        <v>241125</v>
+        <v>242096</v>
       </c>
       <c r="D6" t="n">
-        <v>120529</v>
+        <v>113875</v>
       </c>
       <c r="E6" t="n">
-        <v>439953</v>
+        <v>451525</v>
       </c>
       <c r="F6" t="n">
-        <v>617376</v>
+        <v>635740</v>
       </c>
       <c r="G6" t="n">
-        <v>99367</v>
+        <v>97608</v>
       </c>
       <c r="H6" t="n">
-        <v>42540</v>
+        <v>41614</v>
       </c>
       <c r="I6" t="n">
-        <v>41200</v>
+        <v>42464</v>
       </c>
       <c r="J6" t="n">
-        <v>496248</v>
+        <v>515996</v>
       </c>
       <c r="K6" t="n">
-        <v>464484</v>
+        <v>477607</v>
       </c>
       <c r="L6" t="n">
-        <v>114961</v>
+        <v>116891</v>
       </c>
       <c r="M6" t="n">
-        <v>105233</v>
+        <v>106430</v>
       </c>
       <c r="N6" t="n">
-        <v>76110</v>
+        <v>67906</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>45846</v>
+        <v>45853</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -888,16 +888,16 @@
         </is>
       </c>
       <c r="R6" t="n">
-        <v>241125</v>
+        <v>242096</v>
       </c>
       <c r="S6" t="n">
-        <v>120529</v>
+        <v>113875</v>
       </c>
       <c r="T6" t="n">
-        <v>120596</v>
+        <v>128221</v>
       </c>
       <c r="U6" t="n">
-        <v>14.97</v>
+        <v>15.63</v>
       </c>
     </row>
     <row r="7">
@@ -907,46 +907,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>191557</v>
+        <v>187275</v>
       </c>
       <c r="C7" t="n">
-        <v>108019</v>
+        <v>100980</v>
       </c>
       <c r="D7" t="n">
-        <v>74825</v>
+        <v>71789</v>
       </c>
       <c r="E7" t="n">
-        <v>45495</v>
+        <v>49932</v>
       </c>
       <c r="F7" t="n">
-        <v>89037</v>
+        <v>87413</v>
       </c>
       <c r="G7" t="n">
-        <v>36635</v>
+        <v>34471</v>
       </c>
       <c r="H7" t="n">
-        <v>26287</v>
+        <v>26181</v>
       </c>
       <c r="I7" t="n">
-        <v>8829</v>
+        <v>10620</v>
       </c>
       <c r="J7" t="n">
-        <v>39841</v>
+        <v>37878</v>
       </c>
       <c r="K7" t="n">
-        <v>66611</v>
+        <v>57625</v>
       </c>
       <c r="L7" t="n">
-        <v>79765</v>
+        <v>84786</v>
       </c>
       <c r="M7" t="n">
-        <v>69294</v>
+        <v>72514</v>
       </c>
       <c r="N7" t="n">
-        <v>32645</v>
+        <v>24991</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>45846</v>
+        <v>45853</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
@@ -959,16 +959,16 @@
         </is>
       </c>
       <c r="R7" t="n">
-        <v>108019</v>
+        <v>100980</v>
       </c>
       <c r="S7" t="n">
-        <v>74825</v>
+        <v>71789</v>
       </c>
       <c r="T7" t="n">
-        <v>33194</v>
+        <v>29191</v>
       </c>
       <c r="U7" t="n">
-        <v>17.33</v>
+        <v>15.59</v>
       </c>
     </row>
     <row r="8">
@@ -978,46 +978,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>308621</v>
+        <v>321350</v>
       </c>
       <c r="C8" t="n">
-        <v>166192</v>
+        <v>165444</v>
       </c>
       <c r="D8" t="n">
-        <v>50037</v>
+        <v>61862</v>
       </c>
       <c r="E8" t="n">
-        <v>96636</v>
+        <v>108744</v>
       </c>
       <c r="F8" t="n">
-        <v>225316</v>
+        <v>219590</v>
       </c>
       <c r="G8" t="n">
-        <v>40895</v>
+        <v>43283</v>
       </c>
       <c r="H8" t="n">
-        <v>28370</v>
+        <v>36019</v>
       </c>
       <c r="I8" t="n">
-        <v>9523</v>
+        <v>36455</v>
       </c>
       <c r="J8" t="n">
-        <v>203380</v>
+        <v>192890</v>
       </c>
       <c r="K8" t="n">
-        <v>112913</v>
+        <v>100056</v>
       </c>
       <c r="L8" t="n">
-        <v>25159</v>
+        <v>31678</v>
       </c>
       <c r="M8" t="n">
-        <v>42605</v>
+        <v>42392</v>
       </c>
       <c r="N8" t="n">
-        <v>32223</v>
+        <v>45751</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>45846</v>
+        <v>45853</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
@@ -1030,16 +1030,16 @@
         </is>
       </c>
       <c r="R8" t="n">
-        <v>166192</v>
+        <v>165444</v>
       </c>
       <c r="S8" t="n">
-        <v>50037</v>
+        <v>61862</v>
       </c>
       <c r="T8" t="n">
-        <v>116155</v>
+        <v>103582</v>
       </c>
       <c r="U8" t="n">
-        <v>37.64</v>
+        <v>32.23</v>
       </c>
     </row>
     <row r="9">
@@ -1049,46 +1049,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>167262</v>
+        <v>165808</v>
       </c>
       <c r="C9" t="n">
-        <v>97431</v>
+        <v>92332</v>
       </c>
       <c r="D9" t="n">
-        <v>42353</v>
+        <v>42210</v>
       </c>
       <c r="E9" t="n">
-        <v>61703</v>
+        <v>63981</v>
       </c>
       <c r="F9" t="n">
-        <v>121631</v>
+        <v>120154</v>
       </c>
       <c r="G9" t="n">
-        <v>7343</v>
+        <v>8820</v>
       </c>
       <c r="H9" t="n">
-        <v>2493</v>
+        <v>2769</v>
       </c>
       <c r="I9" t="n">
-        <v>11182</v>
+        <v>10610</v>
       </c>
       <c r="J9" t="n">
-        <v>55727</v>
+        <v>59891</v>
       </c>
       <c r="K9" t="n">
-        <v>76519</v>
+        <v>76091</v>
       </c>
       <c r="L9" t="n">
-        <v>32248</v>
+        <v>33066</v>
       </c>
       <c r="M9" t="n">
-        <v>62032</v>
+        <v>59612</v>
       </c>
       <c r="N9" t="n">
-        <v>67557</v>
+        <v>60506</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>45846</v>
+        <v>45853</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
@@ -1101,16 +1101,16 @@
         </is>
       </c>
       <c r="R9" t="n">
-        <v>97431</v>
+        <v>92332</v>
       </c>
       <c r="S9" t="n">
-        <v>42353</v>
+        <v>42210</v>
       </c>
       <c r="T9" t="n">
-        <v>55078</v>
+        <v>50122</v>
       </c>
       <c r="U9" t="n">
-        <v>32.93</v>
+        <v>30.23</v>
       </c>
     </row>
     <row r="10">
@@ -1120,46 +1120,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43037</v>
+        <v>41959</v>
       </c>
       <c r="C10" t="n">
-        <v>18984</v>
+        <v>16623</v>
       </c>
       <c r="D10" t="n">
-        <v>14063</v>
+        <v>12988</v>
       </c>
       <c r="E10" t="n">
-        <v>14023</v>
+        <v>16041</v>
       </c>
       <c r="F10" t="n">
-        <v>20962</v>
+        <v>20044</v>
       </c>
       <c r="G10" t="n">
-        <v>5419</v>
+        <v>4429</v>
       </c>
       <c r="H10" t="n">
-        <v>3401</v>
+        <v>4061</v>
       </c>
       <c r="I10" t="n">
-        <v>4672</v>
+        <v>5958</v>
       </c>
       <c r="J10" t="n">
-        <v>9267</v>
+        <v>8781</v>
       </c>
       <c r="K10" t="n">
-        <v>19974</v>
+        <v>18260</v>
       </c>
       <c r="L10" t="n">
-        <v>10745</v>
+        <v>10068</v>
       </c>
       <c r="M10" t="n">
-        <v>4986</v>
+        <v>5697</v>
       </c>
       <c r="N10" t="n">
-        <v>13640</v>
+        <v>12441</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>45846</v>
+        <v>45853</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
@@ -1172,16 +1172,16 @@
         </is>
       </c>
       <c r="R10" t="n">
-        <v>18984</v>
+        <v>16623</v>
       </c>
       <c r="S10" t="n">
-        <v>14063</v>
+        <v>12988</v>
       </c>
       <c r="T10" t="n">
-        <v>4921</v>
+        <v>3635</v>
       </c>
       <c r="U10" t="n">
-        <v>11.43</v>
+        <v>8.66</v>
       </c>
     </row>
     <row r="11">
@@ -1191,46 +1191,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>150487</v>
+        <v>161394</v>
       </c>
       <c r="C11" t="n">
-        <v>21233</v>
+        <v>25066</v>
       </c>
       <c r="D11" t="n">
-        <v>96152</v>
+        <v>106321</v>
       </c>
       <c r="E11" t="n">
-        <v>97063</v>
+        <v>105142</v>
       </c>
       <c r="F11" t="n">
-        <v>24535</v>
+        <v>27801</v>
       </c>
       <c r="G11" t="n">
-        <v>24040</v>
+        <v>23352</v>
       </c>
       <c r="H11" t="n">
-        <v>21649</v>
+        <v>19438</v>
       </c>
       <c r="I11" t="n">
-        <v>52164</v>
+        <v>60092</v>
       </c>
       <c r="J11" t="n">
-        <v>2516</v>
+        <v>1902</v>
       </c>
       <c r="K11" t="n">
-        <v>39485</v>
+        <v>37995</v>
       </c>
       <c r="L11" t="n">
-        <v>77968</v>
+        <v>91878</v>
       </c>
       <c r="M11" t="n">
-        <v>19728</v>
+        <v>25713</v>
       </c>
       <c r="N11" t="n">
-        <v>37336</v>
+        <v>37898</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>45853</v>
+        <v>45860</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
@@ -1243,16 +1243,16 @@
         </is>
       </c>
       <c r="R11" t="n">
-        <v>21233</v>
+        <v>25066</v>
       </c>
       <c r="S11" t="n">
-        <v>96152</v>
+        <v>106321</v>
       </c>
       <c r="T11" t="n">
-        <v>-74919</v>
+        <v>-81255</v>
       </c>
       <c r="U11" t="n">
-        <v>-49.78</v>
+        <v>-50.35</v>
       </c>
     </row>
     <row r="12">
@@ -1262,46 +1262,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>95160</v>
+        <v>93421</v>
       </c>
       <c r="C12" t="n">
-        <v>60809</v>
+        <v>58202</v>
       </c>
       <c r="D12" t="n">
-        <v>36637</v>
+        <v>32345</v>
       </c>
       <c r="E12" t="n">
-        <v>28965</v>
+        <v>29484</v>
       </c>
       <c r="F12" t="n">
-        <v>57033</v>
+        <v>58872</v>
       </c>
       <c r="G12" t="n">
-        <v>4761</v>
+        <v>4575</v>
       </c>
       <c r="H12" t="n">
-        <v>865</v>
+        <v>1044</v>
       </c>
       <c r="I12" t="n">
-        <v>1687</v>
+        <v>3069</v>
       </c>
       <c r="J12" t="n">
-        <v>45040</v>
+        <v>45400</v>
       </c>
       <c r="K12" t="n">
-        <v>67790</v>
+        <v>62790</v>
       </c>
       <c r="L12" t="n">
-        <v>753</v>
+        <v>590</v>
       </c>
       <c r="M12" t="n">
-        <v>17026</v>
+        <v>18255</v>
       </c>
       <c r="N12" t="n">
-        <v>24673</v>
+        <v>19083</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>45853</v>
+        <v>45860</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
@@ -1314,16 +1314,16 @@
         </is>
       </c>
       <c r="R12" t="n">
-        <v>60809</v>
+        <v>58202</v>
       </c>
       <c r="S12" t="n">
-        <v>36637</v>
+        <v>32345</v>
       </c>
       <c r="T12" t="n">
-        <v>24172</v>
+        <v>25857</v>
       </c>
       <c r="U12" t="n">
-        <v>25.4</v>
+        <v>27.68</v>
       </c>
     </row>
     <row r="13">
@@ -1333,46 +1333,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>202720</v>
+        <v>200895</v>
       </c>
       <c r="C13" t="n">
-        <v>21924</v>
+        <v>23086</v>
       </c>
       <c r="D13" t="n">
-        <v>96018</v>
+        <v>93429</v>
       </c>
       <c r="E13" t="n">
-        <v>141093</v>
+        <v>140760</v>
       </c>
       <c r="F13" t="n">
-        <v>68327</v>
+        <v>69250</v>
       </c>
       <c r="G13" t="n">
-        <v>27836</v>
+        <v>23647</v>
       </c>
       <c r="H13" t="n">
-        <v>26508</v>
+        <v>24814</v>
       </c>
       <c r="I13" t="n">
-        <v>94000</v>
+        <v>94422</v>
       </c>
       <c r="J13" t="n">
-        <v>24896</v>
+        <v>22297</v>
       </c>
       <c r="K13" t="n">
-        <v>36258</v>
+        <v>35356</v>
       </c>
       <c r="L13" t="n">
-        <v>87009</v>
+        <v>82990</v>
       </c>
       <c r="M13" t="n">
-        <v>18796</v>
+        <v>19500</v>
       </c>
       <c r="N13" t="n">
-        <v>44516</v>
+        <v>50125</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>45853</v>
+        <v>45860</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
@@ -1385,16 +1385,16 @@
         </is>
       </c>
       <c r="R13" t="n">
-        <v>21924</v>
+        <v>23086</v>
       </c>
       <c r="S13" t="n">
-        <v>96018</v>
+        <v>93429</v>
       </c>
       <c r="T13" t="n">
-        <v>-74094</v>
+        <v>-70343</v>
       </c>
       <c r="U13" t="n">
-        <v>-36.55</v>
+        <v>-35.01</v>
       </c>
     </row>
     <row r="14">
@@ -1404,46 +1404,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>74255</v>
+        <v>75681</v>
       </c>
       <c r="C14" t="n">
-        <v>9959</v>
+        <v>8087</v>
       </c>
       <c r="D14" t="n">
-        <v>32596</v>
+        <v>34152</v>
       </c>
       <c r="E14" t="n">
-        <v>49559</v>
+        <v>52184</v>
       </c>
       <c r="F14" t="n">
-        <v>26543</v>
+        <v>25753</v>
       </c>
       <c r="G14" t="n">
-        <v>14677</v>
+        <v>15305</v>
       </c>
       <c r="H14" t="n">
-        <v>15056</v>
+        <v>15671</v>
       </c>
       <c r="I14" t="n">
-        <v>43716</v>
+        <v>44953</v>
       </c>
       <c r="J14" t="n">
-        <v>8416</v>
+        <v>7482</v>
       </c>
       <c r="K14" t="n">
-        <v>6449</v>
+        <v>7122</v>
       </c>
       <c r="L14" t="n">
-        <v>40471</v>
+        <v>40890</v>
       </c>
       <c r="M14" t="n">
-        <v>7129</v>
+        <v>5962</v>
       </c>
       <c r="N14" t="n">
-        <v>8372</v>
+        <v>9643</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>45853</v>
+        <v>45860</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
@@ -1456,16 +1456,16 @@
         </is>
       </c>
       <c r="R14" t="n">
-        <v>9959</v>
+        <v>8087</v>
       </c>
       <c r="S14" t="n">
-        <v>32596</v>
+        <v>34152</v>
       </c>
       <c r="T14" t="n">
-        <v>-22637</v>
+        <v>-26065</v>
       </c>
       <c r="U14" t="n">
-        <v>-30.49</v>
+        <v>-34.44</v>
       </c>
     </row>
     <row r="15">
@@ -1475,46 +1475,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>820440</v>
+        <v>843447</v>
       </c>
       <c r="C15" t="n">
-        <v>242096</v>
+        <v>248380</v>
       </c>
       <c r="D15" t="n">
-        <v>113875</v>
+        <v>122865</v>
       </c>
       <c r="E15" t="n">
-        <v>451525</v>
+        <v>469100</v>
       </c>
       <c r="F15" t="n">
-        <v>635740</v>
+        <v>646813</v>
       </c>
       <c r="G15" t="n">
-        <v>97608</v>
+        <v>96216</v>
       </c>
       <c r="H15" t="n">
-        <v>41614</v>
+        <v>44018</v>
       </c>
       <c r="I15" t="n">
-        <v>42464</v>
+        <v>47272</v>
       </c>
       <c r="J15" t="n">
-        <v>515996</v>
+        <v>522071</v>
       </c>
       <c r="K15" t="n">
-        <v>477607</v>
+        <v>497068</v>
       </c>
       <c r="L15" t="n">
-        <v>116891</v>
+        <v>122740</v>
       </c>
       <c r="M15" t="n">
-        <v>106430</v>
+        <v>102310</v>
       </c>
       <c r="N15" t="n">
-        <v>67906</v>
+        <v>73901</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>45853</v>
+        <v>45860</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="R15" t="n">
-        <v>242096</v>
+        <v>248380</v>
       </c>
       <c r="S15" t="n">
-        <v>113875</v>
+        <v>122865</v>
       </c>
       <c r="T15" t="n">
-        <v>128221</v>
+        <v>125515</v>
       </c>
       <c r="U15" t="n">
-        <v>15.63</v>
+        <v>14.88</v>
       </c>
     </row>
     <row r="16">
@@ -1546,46 +1546,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>187275</v>
+        <v>195467</v>
       </c>
       <c r="C16" t="n">
-        <v>100980</v>
+        <v>93760</v>
       </c>
       <c r="D16" t="n">
-        <v>71789</v>
+        <v>93190</v>
       </c>
       <c r="E16" t="n">
-        <v>49932</v>
+        <v>67928</v>
       </c>
       <c r="F16" t="n">
-        <v>87413</v>
+        <v>73667</v>
       </c>
       <c r="G16" t="n">
-        <v>34471</v>
+        <v>32179</v>
       </c>
       <c r="H16" t="n">
-        <v>26181</v>
+        <v>27010</v>
       </c>
       <c r="I16" t="n">
-        <v>10620</v>
+        <v>31025</v>
       </c>
       <c r="J16" t="n">
-        <v>37878</v>
+        <v>28718</v>
       </c>
       <c r="K16" t="n">
-        <v>57625</v>
+        <v>48719</v>
       </c>
       <c r="L16" t="n">
-        <v>84786</v>
+        <v>106972</v>
       </c>
       <c r="M16" t="n">
-        <v>72514</v>
+        <v>72364</v>
       </c>
       <c r="N16" t="n">
-        <v>24991</v>
+        <v>20847</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>45853</v>
+        <v>45860</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
@@ -1598,16 +1598,16 @@
         </is>
       </c>
       <c r="R16" t="n">
-        <v>100980</v>
+        <v>93760</v>
       </c>
       <c r="S16" t="n">
-        <v>71789</v>
+        <v>93190</v>
       </c>
       <c r="T16" t="n">
-        <v>29191</v>
+        <v>570</v>
       </c>
       <c r="U16" t="n">
-        <v>15.59</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="17">
@@ -1617,46 +1617,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>321350</v>
+        <v>313040</v>
       </c>
       <c r="C17" t="n">
-        <v>165444</v>
+        <v>164411</v>
       </c>
       <c r="D17" t="n">
-        <v>61862</v>
+        <v>57766</v>
       </c>
       <c r="E17" t="n">
-        <v>108744</v>
+        <v>101532</v>
       </c>
       <c r="F17" t="n">
-        <v>219590</v>
+        <v>218892</v>
       </c>
       <c r="G17" t="n">
-        <v>43283</v>
+        <v>43676</v>
       </c>
       <c r="H17" t="n">
-        <v>36019</v>
+        <v>32961</v>
       </c>
       <c r="I17" t="n">
-        <v>36455</v>
+        <v>28423</v>
       </c>
       <c r="J17" t="n">
-        <v>192890</v>
+        <v>192337</v>
       </c>
       <c r="K17" t="n">
-        <v>100056</v>
+        <v>100874</v>
       </c>
       <c r="L17" t="n">
-        <v>31678</v>
+        <v>30516</v>
       </c>
       <c r="M17" t="n">
-        <v>42392</v>
+        <v>36995</v>
       </c>
       <c r="N17" t="n">
-        <v>45751</v>
+        <v>43056</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>45853</v>
+        <v>45860</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
@@ -1669,16 +1669,16 @@
         </is>
       </c>
       <c r="R17" t="n">
-        <v>165444</v>
+        <v>164411</v>
       </c>
       <c r="S17" t="n">
-        <v>61862</v>
+        <v>57766</v>
       </c>
       <c r="T17" t="n">
-        <v>103582</v>
+        <v>106645</v>
       </c>
       <c r="U17" t="n">
-        <v>32.23</v>
+        <v>34.07</v>
       </c>
     </row>
     <row r="18">
@@ -1688,46 +1688,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>165808</v>
+        <v>172369</v>
       </c>
       <c r="C18" t="n">
-        <v>92332</v>
+        <v>99081</v>
       </c>
       <c r="D18" t="n">
-        <v>42210</v>
+        <v>43017</v>
       </c>
       <c r="E18" t="n">
-        <v>63981</v>
+        <v>64766</v>
       </c>
       <c r="F18" t="n">
-        <v>120154</v>
+        <v>125106</v>
       </c>
       <c r="G18" t="n">
-        <v>8820</v>
+        <v>7251</v>
       </c>
       <c r="H18" t="n">
-        <v>2769</v>
+        <v>2975</v>
       </c>
       <c r="I18" t="n">
-        <v>10610</v>
+        <v>10596</v>
       </c>
       <c r="J18" t="n">
-        <v>59891</v>
+        <v>64390</v>
       </c>
       <c r="K18" t="n">
-        <v>76091</v>
+        <v>72205</v>
       </c>
       <c r="L18" t="n">
-        <v>33066</v>
+        <v>33901</v>
       </c>
       <c r="M18" t="n">
-        <v>59612</v>
+        <v>68978</v>
       </c>
       <c r="N18" t="n">
-        <v>60506</v>
+        <v>59998</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>45853</v>
+        <v>45860</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
@@ -1740,16 +1740,16 @@
         </is>
       </c>
       <c r="R18" t="n">
-        <v>92332</v>
+        <v>99081</v>
       </c>
       <c r="S18" t="n">
-        <v>42210</v>
+        <v>43017</v>
       </c>
       <c r="T18" t="n">
-        <v>50122</v>
+        <v>56064</v>
       </c>
       <c r="U18" t="n">
-        <v>30.23</v>
+        <v>32.53</v>
       </c>
     </row>
     <row r="19">
@@ -1759,46 +1759,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>41959</v>
+        <v>44100</v>
       </c>
       <c r="C19" t="n">
-        <v>16623</v>
+        <v>11955</v>
       </c>
       <c r="D19" t="n">
-        <v>12988</v>
+        <v>15117</v>
       </c>
       <c r="E19" t="n">
-        <v>16041</v>
+        <v>22656</v>
       </c>
       <c r="F19" t="n">
-        <v>20044</v>
+        <v>19365</v>
       </c>
       <c r="G19" t="n">
-        <v>4429</v>
+        <v>4276</v>
       </c>
       <c r="H19" t="n">
-        <v>4061</v>
+        <v>4405</v>
       </c>
       <c r="I19" t="n">
-        <v>5958</v>
+        <v>10402</v>
       </c>
       <c r="J19" t="n">
-        <v>8781</v>
+        <v>7823</v>
       </c>
       <c r="K19" t="n">
-        <v>18260</v>
+        <v>14589</v>
       </c>
       <c r="L19" t="n">
-        <v>10068</v>
+        <v>9555</v>
       </c>
       <c r="M19" t="n">
-        <v>5697</v>
+        <v>5952</v>
       </c>
       <c r="N19" t="n">
-        <v>12441</v>
+        <v>13280</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>45853</v>
+        <v>45860</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
@@ -1811,16 +1811,16 @@
         </is>
       </c>
       <c r="R19" t="n">
-        <v>16623</v>
+        <v>11955</v>
       </c>
       <c r="S19" t="n">
-        <v>12988</v>
+        <v>15117</v>
       </c>
       <c r="T19" t="n">
-        <v>3635</v>
+        <v>-3162</v>
       </c>
       <c r="U19" t="n">
-        <v>8.66</v>
+        <v>-7.17</v>
       </c>
     </row>
     <row r="20">
@@ -1830,46 +1830,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>161394</v>
+        <v>159680</v>
       </c>
       <c r="C20" t="n">
-        <v>25066</v>
+        <v>26506</v>
       </c>
       <c r="D20" t="n">
-        <v>106321</v>
+        <v>104600</v>
       </c>
       <c r="E20" t="n">
-        <v>105142</v>
+        <v>102997</v>
       </c>
       <c r="F20" t="n">
-        <v>27801</v>
+        <v>27955</v>
       </c>
       <c r="G20" t="n">
-        <v>23352</v>
+        <v>22633</v>
       </c>
       <c r="H20" t="n">
-        <v>19438</v>
+        <v>19581</v>
       </c>
       <c r="I20" t="n">
-        <v>60092</v>
+        <v>56421</v>
       </c>
       <c r="J20" t="n">
-        <v>1902</v>
+        <v>2827</v>
       </c>
       <c r="K20" t="n">
-        <v>37995</v>
+        <v>42358</v>
       </c>
       <c r="L20" t="n">
-        <v>91878</v>
+        <v>91839</v>
       </c>
       <c r="M20" t="n">
-        <v>25713</v>
+        <v>23013</v>
       </c>
       <c r="N20" t="n">
-        <v>37898</v>
+        <v>34399</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>45860</v>
+        <v>45867</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="R20" t="n">
-        <v>25066</v>
+        <v>26506</v>
       </c>
       <c r="S20" t="n">
-        <v>106321</v>
+        <v>104600</v>
       </c>
       <c r="T20" t="n">
-        <v>-81255</v>
+        <v>-78094</v>
       </c>
       <c r="U20" t="n">
-        <v>-50.35</v>
+        <v>-48.91</v>
       </c>
     </row>
     <row r="21">
@@ -1901,46 +1901,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>93421</v>
+        <v>114097</v>
       </c>
       <c r="C21" t="n">
-        <v>58202</v>
+        <v>50846</v>
       </c>
       <c r="D21" t="n">
-        <v>32345</v>
+        <v>26924</v>
       </c>
       <c r="E21" t="n">
-        <v>29484</v>
+        <v>33082</v>
       </c>
       <c r="F21" t="n">
-        <v>58872</v>
+        <v>60060</v>
       </c>
       <c r="G21" t="n">
-        <v>4575</v>
+        <v>4208</v>
       </c>
       <c r="H21" t="n">
-        <v>1044</v>
+        <v>1152</v>
       </c>
       <c r="I21" t="n">
-        <v>3069</v>
+        <v>3134</v>
       </c>
       <c r="J21" t="n">
-        <v>45400</v>
+        <v>44494</v>
       </c>
       <c r="K21" t="n">
-        <v>62790</v>
+        <v>57715</v>
       </c>
       <c r="L21" t="n">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="M21" t="n">
-        <v>18255</v>
+        <v>18574</v>
       </c>
       <c r="N21" t="n">
-        <v>19083</v>
+        <v>15404</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>45860</v>
+        <v>45867</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
@@ -1953,16 +1953,16 @@
         </is>
       </c>
       <c r="R21" t="n">
-        <v>58202</v>
+        <v>50846</v>
       </c>
       <c r="S21" t="n">
-        <v>32345</v>
+        <v>26924</v>
       </c>
       <c r="T21" t="n">
-        <v>25857</v>
+        <v>23922</v>
       </c>
       <c r="U21" t="n">
-        <v>27.68</v>
+        <v>20.97</v>
       </c>
     </row>
     <row r="22">
@@ -1972,46 +1972,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>200895</v>
+        <v>201852</v>
       </c>
       <c r="C22" t="n">
-        <v>23086</v>
+        <v>20884</v>
       </c>
       <c r="D22" t="n">
-        <v>93429</v>
+        <v>97317</v>
       </c>
       <c r="E22" t="n">
-        <v>140760</v>
+        <v>143816</v>
       </c>
       <c r="F22" t="n">
-        <v>69250</v>
+        <v>66528</v>
       </c>
       <c r="G22" t="n">
-        <v>23647</v>
+        <v>23824</v>
       </c>
       <c r="H22" t="n">
-        <v>24814</v>
+        <v>24679</v>
       </c>
       <c r="I22" t="n">
-        <v>94422</v>
+        <v>95832</v>
       </c>
       <c r="J22" t="n">
-        <v>22297</v>
+        <v>19537</v>
       </c>
       <c r="K22" t="n">
-        <v>35356</v>
+        <v>36500</v>
       </c>
       <c r="L22" t="n">
-        <v>82990</v>
+        <v>88299</v>
       </c>
       <c r="M22" t="n">
-        <v>19500</v>
+        <v>17555</v>
       </c>
       <c r="N22" t="n">
-        <v>50125</v>
+        <v>47640</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>45860</v>
+        <v>45867</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
@@ -2024,16 +2024,16 @@
         </is>
       </c>
       <c r="R22" t="n">
-        <v>23086</v>
+        <v>20884</v>
       </c>
       <c r="S22" t="n">
-        <v>93429</v>
+        <v>97317</v>
       </c>
       <c r="T22" t="n">
-        <v>-70343</v>
+        <v>-76433</v>
       </c>
       <c r="U22" t="n">
-        <v>-35.01</v>
+        <v>-37.87</v>
       </c>
     </row>
     <row r="23">
@@ -2043,46 +2043,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>75681</v>
+        <v>76905</v>
       </c>
       <c r="C23" t="n">
-        <v>8087</v>
+        <v>9023</v>
       </c>
       <c r="D23" t="n">
-        <v>34152</v>
+        <v>33057</v>
       </c>
       <c r="E23" t="n">
-        <v>52184</v>
+        <v>54734</v>
       </c>
       <c r="F23" t="n">
-        <v>25753</v>
+        <v>26444</v>
       </c>
       <c r="G23" t="n">
-        <v>15305</v>
+        <v>13021</v>
       </c>
       <c r="H23" t="n">
-        <v>15671</v>
+        <v>17277</v>
       </c>
       <c r="I23" t="n">
-        <v>44953</v>
+        <v>48029</v>
       </c>
       <c r="J23" t="n">
-        <v>7482</v>
+        <v>7573</v>
       </c>
       <c r="K23" t="n">
-        <v>7122</v>
+        <v>6883</v>
       </c>
       <c r="L23" t="n">
-        <v>40890</v>
+        <v>40917</v>
       </c>
       <c r="M23" t="n">
-        <v>5962</v>
+        <v>6853</v>
       </c>
       <c r="N23" t="n">
-        <v>9643</v>
+        <v>9115</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>45860</v>
+        <v>45867</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
@@ -2095,16 +2095,16 @@
         </is>
       </c>
       <c r="R23" t="n">
-        <v>8087</v>
+        <v>9023</v>
       </c>
       <c r="S23" t="n">
-        <v>34152</v>
+        <v>33057</v>
       </c>
       <c r="T23" t="n">
-        <v>-26065</v>
+        <v>-24034</v>
       </c>
       <c r="U23" t="n">
-        <v>-34.44</v>
+        <v>-31.25</v>
       </c>
     </row>
     <row r="24">
@@ -2114,46 +2114,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>843447</v>
+        <v>828577</v>
       </c>
       <c r="C24" t="n">
-        <v>248380</v>
+        <v>248841</v>
       </c>
       <c r="D24" t="n">
-        <v>122865</v>
+        <v>125482</v>
       </c>
       <c r="E24" t="n">
-        <v>469100</v>
+        <v>452550</v>
       </c>
       <c r="F24" t="n">
-        <v>646813</v>
+        <v>628328</v>
       </c>
       <c r="G24" t="n">
-        <v>96216</v>
+        <v>97921</v>
       </c>
       <c r="H24" t="n">
-        <v>44018</v>
+        <v>45502</v>
       </c>
       <c r="I24" t="n">
-        <v>47272</v>
+        <v>47984</v>
       </c>
       <c r="J24" t="n">
-        <v>522071</v>
+        <v>499338</v>
       </c>
       <c r="K24" t="n">
-        <v>497068</v>
+        <v>481538</v>
       </c>
       <c r="L24" t="n">
-        <v>122740</v>
+        <v>124153</v>
       </c>
       <c r="M24" t="n">
-        <v>102310</v>
+        <v>110100</v>
       </c>
       <c r="N24" t="n">
-        <v>73901</v>
+        <v>79238</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>45860</v>
+        <v>45867</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
@@ -2166,16 +2166,16 @@
         </is>
       </c>
       <c r="R24" t="n">
-        <v>248380</v>
+        <v>248841</v>
       </c>
       <c r="S24" t="n">
-        <v>122865</v>
+        <v>125482</v>
       </c>
       <c r="T24" t="n">
-        <v>125515</v>
+        <v>123359</v>
       </c>
       <c r="U24" t="n">
-        <v>14.88</v>
+        <v>14.89</v>
       </c>
     </row>
     <row r="25">
@@ -2185,46 +2185,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>195467</v>
+        <v>207879</v>
       </c>
       <c r="C25" t="n">
-        <v>93760</v>
+        <v>87799</v>
       </c>
       <c r="D25" t="n">
-        <v>93190</v>
+        <v>99827</v>
       </c>
       <c r="E25" t="n">
-        <v>67928</v>
+        <v>88729</v>
       </c>
       <c r="F25" t="n">
-        <v>73667</v>
+        <v>75405</v>
       </c>
       <c r="G25" t="n">
-        <v>32179</v>
+        <v>29296</v>
       </c>
       <c r="H25" t="n">
-        <v>27010</v>
+        <v>30592</v>
       </c>
       <c r="I25" t="n">
-        <v>31025</v>
+        <v>44612</v>
       </c>
       <c r="J25" t="n">
-        <v>28718</v>
+        <v>23772</v>
       </c>
       <c r="K25" t="n">
-        <v>48719</v>
+        <v>45490</v>
       </c>
       <c r="L25" t="n">
-        <v>106972</v>
+        <v>111086</v>
       </c>
       <c r="M25" t="n">
-        <v>72364</v>
+        <v>73071</v>
       </c>
       <c r="N25" t="n">
-        <v>20847</v>
+        <v>25370</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>45860</v>
+        <v>45867</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
@@ -2237,16 +2237,16 @@
         </is>
       </c>
       <c r="R25" t="n">
-        <v>93760</v>
+        <v>87799</v>
       </c>
       <c r="S25" t="n">
-        <v>93190</v>
+        <v>99827</v>
       </c>
       <c r="T25" t="n">
-        <v>570</v>
+        <v>-12028</v>
       </c>
       <c r="U25" t="n">
-        <v>0.29</v>
+        <v>-5.79</v>
       </c>
     </row>
     <row r="26">
@@ -2256,46 +2256,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>313040</v>
+        <v>329115</v>
       </c>
       <c r="C26" t="n">
-        <v>164411</v>
+        <v>162122</v>
       </c>
       <c r="D26" t="n">
-        <v>57766</v>
+        <v>72879</v>
       </c>
       <c r="E26" t="n">
-        <v>101532</v>
+        <v>123152</v>
       </c>
       <c r="F26" t="n">
-        <v>218892</v>
+        <v>215700</v>
       </c>
       <c r="G26" t="n">
-        <v>43676</v>
+        <v>40306</v>
       </c>
       <c r="H26" t="n">
-        <v>32961</v>
+        <v>37001</v>
       </c>
       <c r="I26" t="n">
-        <v>28423</v>
+        <v>46073</v>
       </c>
       <c r="J26" t="n">
-        <v>192337</v>
+        <v>186961</v>
       </c>
       <c r="K26" t="n">
-        <v>100874</v>
+        <v>103482</v>
       </c>
       <c r="L26" t="n">
-        <v>30516</v>
+        <v>31931</v>
       </c>
       <c r="M26" t="n">
-        <v>36995</v>
+        <v>37000</v>
       </c>
       <c r="N26" t="n">
-        <v>43056</v>
+        <v>57878</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>45860</v>
+        <v>45867</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
@@ -2308,16 +2308,16 @@
         </is>
       </c>
       <c r="R26" t="n">
-        <v>164411</v>
+        <v>162122</v>
       </c>
       <c r="S26" t="n">
-        <v>57766</v>
+        <v>72879</v>
       </c>
       <c r="T26" t="n">
-        <v>106645</v>
+        <v>89243</v>
       </c>
       <c r="U26" t="n">
-        <v>34.07</v>
+        <v>27.12</v>
       </c>
     </row>
     <row r="27">
@@ -2327,46 +2327,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>172369</v>
+        <v>173983</v>
       </c>
       <c r="C27" t="n">
-        <v>99081</v>
+        <v>99141</v>
       </c>
       <c r="D27" t="n">
-        <v>43017</v>
+        <v>42463</v>
       </c>
       <c r="E27" t="n">
-        <v>64766</v>
+        <v>67835</v>
       </c>
       <c r="F27" t="n">
-        <v>125106</v>
+        <v>127938</v>
       </c>
       <c r="G27" t="n">
-        <v>7251</v>
+        <v>6339</v>
       </c>
       <c r="H27" t="n">
-        <v>2975</v>
+        <v>2914</v>
       </c>
       <c r="I27" t="n">
-        <v>10596</v>
+        <v>10635</v>
       </c>
       <c r="J27" t="n">
-        <v>64390</v>
+        <v>68172</v>
       </c>
       <c r="K27" t="n">
-        <v>72205</v>
+        <v>78142</v>
       </c>
       <c r="L27" t="n">
-        <v>33901</v>
+        <v>34869</v>
       </c>
       <c r="M27" t="n">
-        <v>68978</v>
+        <v>66078</v>
       </c>
       <c r="N27" t="n">
-        <v>59998</v>
+        <v>59339</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>45860</v>
+        <v>45867</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
@@ -2379,16 +2379,16 @@
         </is>
       </c>
       <c r="R27" t="n">
-        <v>99081</v>
+        <v>99141</v>
       </c>
       <c r="S27" t="n">
-        <v>43017</v>
+        <v>42463</v>
       </c>
       <c r="T27" t="n">
-        <v>56064</v>
+        <v>56678</v>
       </c>
       <c r="U27" t="n">
-        <v>32.53</v>
+        <v>32.58</v>
       </c>
     </row>
     <row r="28">
@@ -2398,46 +2398,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>44100</v>
+        <v>46587</v>
       </c>
       <c r="C28" t="n">
-        <v>11955</v>
+        <v>13080</v>
       </c>
       <c r="D28" t="n">
-        <v>15117</v>
+        <v>15171</v>
       </c>
       <c r="E28" t="n">
-        <v>22656</v>
+        <v>23295</v>
       </c>
       <c r="F28" t="n">
-        <v>19365</v>
+        <v>22132</v>
       </c>
       <c r="G28" t="n">
-        <v>4276</v>
+        <v>4692</v>
       </c>
       <c r="H28" t="n">
-        <v>4405</v>
+        <v>3764</v>
       </c>
       <c r="I28" t="n">
-        <v>10402</v>
+        <v>10215</v>
       </c>
       <c r="J28" t="n">
-        <v>7823</v>
+        <v>9104</v>
       </c>
       <c r="K28" t="n">
-        <v>14589</v>
+        <v>15054</v>
       </c>
       <c r="L28" t="n">
-        <v>9555</v>
+        <v>11151</v>
       </c>
       <c r="M28" t="n">
-        <v>5952</v>
+        <v>7542</v>
       </c>
       <c r="N28" t="n">
-        <v>13280</v>
+        <v>13792</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>45860</v>
+        <v>45867</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
@@ -2450,16 +2450,16 @@
         </is>
       </c>
       <c r="R28" t="n">
-        <v>11955</v>
+        <v>13080</v>
       </c>
       <c r="S28" t="n">
-        <v>15117</v>
+        <v>15171</v>
       </c>
       <c r="T28" t="n">
-        <v>-3162</v>
+        <v>-2091</v>
       </c>
       <c r="U28" t="n">
-        <v>-7.17</v>
+        <v>-4.49</v>
       </c>
     </row>
     <row r="29">
@@ -2469,46 +2469,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>159680</v>
+        <v>163900</v>
       </c>
       <c r="C29" t="n">
-        <v>26506</v>
+        <v>23988</v>
       </c>
       <c r="D29" t="n">
-        <v>104600</v>
+        <v>107548</v>
       </c>
       <c r="E29" t="n">
-        <v>102997</v>
+        <v>110361</v>
       </c>
       <c r="F29" t="n">
-        <v>27955</v>
+        <v>27816</v>
       </c>
       <c r="G29" t="n">
-        <v>22633</v>
+        <v>21761</v>
       </c>
       <c r="H29" t="n">
-        <v>19581</v>
+        <v>20746</v>
       </c>
       <c r="I29" t="n">
-        <v>56421</v>
+        <v>69127</v>
       </c>
       <c r="J29" t="n">
-        <v>2827</v>
+        <v>2137</v>
       </c>
       <c r="K29" t="n">
-        <v>42358</v>
+        <v>40337</v>
       </c>
       <c r="L29" t="n">
-        <v>91839</v>
+        <v>101819</v>
       </c>
       <c r="M29" t="n">
-        <v>23013</v>
+        <v>19628</v>
       </c>
       <c r="N29" t="n">
-        <v>34399</v>
+        <v>30092</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>45867</v>
+        <v>45874</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
@@ -2521,16 +2521,16 @@
         </is>
       </c>
       <c r="R29" t="n">
-        <v>26506</v>
+        <v>23988</v>
       </c>
       <c r="S29" t="n">
-        <v>104600</v>
+        <v>107548</v>
       </c>
       <c r="T29" t="n">
-        <v>-78094</v>
+        <v>-83560</v>
       </c>
       <c r="U29" t="n">
-        <v>-48.91</v>
+        <v>-50.98</v>
       </c>
     </row>
     <row r="30">
@@ -2540,46 +2540,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>114097</v>
+        <v>89286</v>
       </c>
       <c r="C30" t="n">
-        <v>50846</v>
+        <v>51209</v>
       </c>
       <c r="D30" t="n">
-        <v>26924</v>
+        <v>26611</v>
       </c>
       <c r="E30" t="n">
-        <v>33082</v>
+        <v>32730</v>
       </c>
       <c r="F30" t="n">
-        <v>60060</v>
+        <v>60560</v>
       </c>
       <c r="G30" t="n">
-        <v>4208</v>
+        <v>4179</v>
       </c>
       <c r="H30" t="n">
-        <v>1152</v>
+        <v>947</v>
       </c>
       <c r="I30" t="n">
-        <v>3134</v>
+        <v>2745</v>
       </c>
       <c r="J30" t="n">
-        <v>44494</v>
+        <v>44088</v>
       </c>
       <c r="K30" t="n">
-        <v>57715</v>
+        <v>59991</v>
       </c>
       <c r="L30" t="n">
-        <v>579</v>
+        <v>535</v>
       </c>
       <c r="M30" t="n">
-        <v>18574</v>
+        <v>18268</v>
       </c>
       <c r="N30" t="n">
-        <v>15404</v>
+        <v>24198</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>45867</v>
+        <v>45874</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
@@ -2592,16 +2592,16 @@
         </is>
       </c>
       <c r="R30" t="n">
-        <v>50846</v>
+        <v>51209</v>
       </c>
       <c r="S30" t="n">
-        <v>26924</v>
+        <v>26611</v>
       </c>
       <c r="T30" t="n">
-        <v>23922</v>
+        <v>24598</v>
       </c>
       <c r="U30" t="n">
-        <v>20.97</v>
+        <v>27.55</v>
       </c>
     </row>
     <row r="31">
@@ -2611,46 +2611,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>201852</v>
+        <v>214849</v>
       </c>
       <c r="C31" t="n">
-        <v>20884</v>
+        <v>23589</v>
       </c>
       <c r="D31" t="n">
-        <v>97317</v>
+        <v>103009</v>
       </c>
       <c r="E31" t="n">
-        <v>143816</v>
+        <v>156289</v>
       </c>
       <c r="F31" t="n">
-        <v>66528</v>
+        <v>71412</v>
       </c>
       <c r="G31" t="n">
-        <v>23824</v>
+        <v>22218</v>
       </c>
       <c r="H31" t="n">
-        <v>24679</v>
+        <v>27675</v>
       </c>
       <c r="I31" t="n">
-        <v>95832</v>
+        <v>112191</v>
       </c>
       <c r="J31" t="n">
-        <v>19537</v>
+        <v>19502</v>
       </c>
       <c r="K31" t="n">
-        <v>36500</v>
+        <v>32291</v>
       </c>
       <c r="L31" t="n">
-        <v>88299</v>
+        <v>95910</v>
       </c>
       <c r="M31" t="n">
-        <v>17555</v>
+        <v>21819</v>
       </c>
       <c r="N31" t="n">
-        <v>47640</v>
+        <v>51711</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>45867</v>
+        <v>45874</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
@@ -2663,16 +2663,16 @@
         </is>
       </c>
       <c r="R31" t="n">
-        <v>20884</v>
+        <v>23589</v>
       </c>
       <c r="S31" t="n">
-        <v>97317</v>
+        <v>103009</v>
       </c>
       <c r="T31" t="n">
-        <v>-76433</v>
+        <v>-79420</v>
       </c>
       <c r="U31" t="n">
-        <v>-37.87</v>
+        <v>-36.97</v>
       </c>
     </row>
     <row r="32">
@@ -2682,46 +2682,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>76905</v>
+        <v>79837</v>
       </c>
       <c r="C32" t="n">
-        <v>9023</v>
+        <v>6806</v>
       </c>
       <c r="D32" t="n">
-        <v>33057</v>
+        <v>34183</v>
       </c>
       <c r="E32" t="n">
-        <v>54734</v>
+        <v>60532</v>
       </c>
       <c r="F32" t="n">
-        <v>26444</v>
+        <v>27419</v>
       </c>
       <c r="G32" t="n">
-        <v>13021</v>
+        <v>12062</v>
       </c>
       <c r="H32" t="n">
-        <v>17277</v>
+        <v>17798</v>
       </c>
       <c r="I32" t="n">
-        <v>48029</v>
+        <v>51220</v>
       </c>
       <c r="J32" t="n">
-        <v>7573</v>
+        <v>7383</v>
       </c>
       <c r="K32" t="n">
-        <v>6883</v>
+        <v>8198</v>
       </c>
       <c r="L32" t="n">
-        <v>40917</v>
+        <v>43084</v>
       </c>
       <c r="M32" t="n">
-        <v>6853</v>
+        <v>5286</v>
       </c>
       <c r="N32" t="n">
-        <v>9115</v>
+        <v>9001</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>45867</v>
+        <v>45874</v>
       </c>
       <c r="P32" t="inlineStr">
         <is>
@@ -2734,16 +2734,16 @@
         </is>
       </c>
       <c r="R32" t="n">
-        <v>9023</v>
+        <v>6806</v>
       </c>
       <c r="S32" t="n">
-        <v>33057</v>
+        <v>34183</v>
       </c>
       <c r="T32" t="n">
-        <v>-24034</v>
+        <v>-27377</v>
       </c>
       <c r="U32" t="n">
-        <v>-31.25</v>
+        <v>-34.29</v>
       </c>
     </row>
     <row r="33">
@@ -2753,46 +2753,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>828577</v>
+        <v>818360</v>
       </c>
       <c r="C33" t="n">
-        <v>248841</v>
+        <v>247357</v>
       </c>
       <c r="D33" t="n">
-        <v>125482</v>
+        <v>131398</v>
       </c>
       <c r="E33" t="n">
-        <v>452550</v>
+        <v>453569</v>
       </c>
       <c r="F33" t="n">
-        <v>628328</v>
+        <v>617114</v>
       </c>
       <c r="G33" t="n">
-        <v>97921</v>
+        <v>92215</v>
       </c>
       <c r="H33" t="n">
-        <v>45502</v>
+        <v>44629</v>
       </c>
       <c r="I33" t="n">
-        <v>47984</v>
+        <v>49171</v>
       </c>
       <c r="J33" t="n">
-        <v>499338</v>
+        <v>488915</v>
       </c>
       <c r="K33" t="n">
-        <v>481538</v>
+        <v>481035</v>
       </c>
       <c r="L33" t="n">
-        <v>124153</v>
+        <v>133610</v>
       </c>
       <c r="M33" t="n">
-        <v>110100</v>
+        <v>106098</v>
       </c>
       <c r="N33" t="n">
-        <v>79238</v>
+        <v>71890</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>45867</v>
+        <v>45874</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="R33" t="n">
-        <v>248841</v>
+        <v>247357</v>
       </c>
       <c r="S33" t="n">
-        <v>125482</v>
+        <v>131398</v>
       </c>
       <c r="T33" t="n">
-        <v>123359</v>
+        <v>115959</v>
       </c>
       <c r="U33" t="n">
-        <v>14.89</v>
+        <v>14.17</v>
       </c>
     </row>
     <row r="34">
@@ -2824,46 +2824,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>207879</v>
+        <v>206254</v>
       </c>
       <c r="C34" t="n">
-        <v>87799</v>
+        <v>65635</v>
       </c>
       <c r="D34" t="n">
-        <v>99827</v>
+        <v>98938</v>
       </c>
       <c r="E34" t="n">
-        <v>88729</v>
+        <v>108854</v>
       </c>
       <c r="F34" t="n">
-        <v>75405</v>
+        <v>76211</v>
       </c>
       <c r="G34" t="n">
-        <v>29296</v>
+        <v>29306</v>
       </c>
       <c r="H34" t="n">
-        <v>30592</v>
+        <v>28646</v>
       </c>
       <c r="I34" t="n">
-        <v>44612</v>
+        <v>63775</v>
       </c>
       <c r="J34" t="n">
-        <v>23772</v>
+        <v>20155</v>
       </c>
       <c r="K34" t="n">
-        <v>45490</v>
+        <v>32304</v>
       </c>
       <c r="L34" t="n">
-        <v>111086</v>
+        <v>115629</v>
       </c>
       <c r="M34" t="n">
-        <v>73071</v>
+        <v>64904</v>
       </c>
       <c r="N34" t="n">
-        <v>25370</v>
+        <v>24932</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>45867</v>
+        <v>45874</v>
       </c>
       <c r="P34" t="inlineStr">
         <is>
@@ -2876,16 +2876,16 @@
         </is>
       </c>
       <c r="R34" t="n">
-        <v>87799</v>
+        <v>65635</v>
       </c>
       <c r="S34" t="n">
-        <v>99827</v>
+        <v>98938</v>
       </c>
       <c r="T34" t="n">
-        <v>-12028</v>
+        <v>-33303</v>
       </c>
       <c r="U34" t="n">
-        <v>-5.79</v>
+        <v>-16.15</v>
       </c>
     </row>
     <row r="35">
@@ -2895,46 +2895,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>329115</v>
+        <v>337378</v>
       </c>
       <c r="C35" t="n">
-        <v>162122</v>
+        <v>160258</v>
       </c>
       <c r="D35" t="n">
-        <v>72879</v>
+        <v>78252</v>
       </c>
       <c r="E35" t="n">
-        <v>123152</v>
+        <v>136734</v>
       </c>
       <c r="F35" t="n">
-        <v>215700</v>
+        <v>224075</v>
       </c>
       <c r="G35" t="n">
-        <v>40306</v>
+        <v>37362</v>
       </c>
       <c r="H35" t="n">
-        <v>37001</v>
+        <v>32027</v>
       </c>
       <c r="I35" t="n">
-        <v>46073</v>
+        <v>55228</v>
       </c>
       <c r="J35" t="n">
-        <v>186961</v>
+        <v>190843</v>
       </c>
       <c r="K35" t="n">
-        <v>103482</v>
+        <v>99799</v>
       </c>
       <c r="L35" t="n">
-        <v>31931</v>
+        <v>41669</v>
       </c>
       <c r="M35" t="n">
-        <v>37000</v>
+        <v>38441</v>
       </c>
       <c r="N35" t="n">
-        <v>57878</v>
+        <v>60091</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>45867</v>
+        <v>45874</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="R35" t="n">
-        <v>162122</v>
+        <v>160258</v>
       </c>
       <c r="S35" t="n">
-        <v>72879</v>
+        <v>78252</v>
       </c>
       <c r="T35" t="n">
-        <v>89243</v>
+        <v>82006</v>
       </c>
       <c r="U35" t="n">
-        <v>27.12</v>
+        <v>24.31</v>
       </c>
     </row>
     <row r="36">
@@ -2966,46 +2966,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>173983</v>
+        <v>176153</v>
       </c>
       <c r="C36" t="n">
-        <v>99141</v>
+        <v>105231</v>
       </c>
       <c r="D36" t="n">
-        <v>42463</v>
+        <v>37176</v>
       </c>
       <c r="E36" t="n">
-        <v>67835</v>
+        <v>63351</v>
       </c>
       <c r="F36" t="n">
-        <v>127938</v>
+        <v>135042</v>
       </c>
       <c r="G36" t="n">
-        <v>6339</v>
+        <v>6628</v>
       </c>
       <c r="H36" t="n">
-        <v>2914</v>
+        <v>2992</v>
       </c>
       <c r="I36" t="n">
-        <v>10635</v>
+        <v>10953</v>
       </c>
       <c r="J36" t="n">
-        <v>68172</v>
+        <v>69914</v>
       </c>
       <c r="K36" t="n">
-        <v>78142</v>
+        <v>69138</v>
       </c>
       <c r="L36" t="n">
-        <v>34869</v>
+        <v>35456</v>
       </c>
       <c r="M36" t="n">
-        <v>66078</v>
+        <v>73979</v>
       </c>
       <c r="N36" t="n">
-        <v>59339</v>
+        <v>56262</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>45867</v>
+        <v>45874</v>
       </c>
       <c r="P36" t="inlineStr">
         <is>
@@ -3018,16 +3018,16 @@
         </is>
       </c>
       <c r="R36" t="n">
-        <v>99141</v>
+        <v>105231</v>
       </c>
       <c r="S36" t="n">
-        <v>42463</v>
+        <v>37176</v>
       </c>
       <c r="T36" t="n">
-        <v>56678</v>
+        <v>68055</v>
       </c>
       <c r="U36" t="n">
-        <v>32.58</v>
+        <v>38.63</v>
       </c>
     </row>
     <row r="37">
@@ -3037,46 +3037,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46587</v>
+        <v>48090</v>
       </c>
       <c r="C37" t="n">
-        <v>13080</v>
+        <v>11085</v>
       </c>
       <c r="D37" t="n">
-        <v>15171</v>
+        <v>15918</v>
       </c>
       <c r="E37" t="n">
-        <v>23295</v>
+        <v>27755</v>
       </c>
       <c r="F37" t="n">
-        <v>22132</v>
+        <v>21596</v>
       </c>
       <c r="G37" t="n">
-        <v>4692</v>
+        <v>3780</v>
       </c>
       <c r="H37" t="n">
-        <v>3764</v>
+        <v>5106</v>
       </c>
       <c r="I37" t="n">
-        <v>10215</v>
+        <v>17657</v>
       </c>
       <c r="J37" t="n">
-        <v>9104</v>
+        <v>8289</v>
       </c>
       <c r="K37" t="n">
-        <v>15054</v>
+        <v>11453</v>
       </c>
       <c r="L37" t="n">
-        <v>11151</v>
+        <v>13264</v>
       </c>
       <c r="M37" t="n">
-        <v>7542</v>
+        <v>6609</v>
       </c>
       <c r="N37" t="n">
-        <v>13792</v>
+        <v>13387</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>45867</v>
+        <v>45874</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
@@ -3089,16 +3089,16 @@
         </is>
       </c>
       <c r="R37" t="n">
-        <v>13080</v>
+        <v>11085</v>
       </c>
       <c r="S37" t="n">
-        <v>15171</v>
+        <v>15918</v>
       </c>
       <c r="T37" t="n">
-        <v>-2091</v>
+        <v>-4833</v>
       </c>
       <c r="U37" t="n">
-        <v>-4.49</v>
+        <v>-10.05</v>
       </c>
     </row>
     <row r="38">
@@ -3108,46 +3108,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>163900</v>
+        <v>171294</v>
       </c>
       <c r="C38" t="n">
-        <v>23988</v>
+        <v>25631</v>
       </c>
       <c r="D38" t="n">
-        <v>107548</v>
+        <v>113536</v>
       </c>
       <c r="E38" t="n">
-        <v>110361</v>
+        <v>114396</v>
       </c>
       <c r="F38" t="n">
-        <v>27816</v>
+        <v>30163</v>
       </c>
       <c r="G38" t="n">
-        <v>21761</v>
+        <v>24097</v>
       </c>
       <c r="H38" t="n">
-        <v>20746</v>
+        <v>20425</v>
       </c>
       <c r="I38" t="n">
-        <v>69127</v>
+        <v>71338</v>
       </c>
       <c r="J38" t="n">
-        <v>2137</v>
+        <v>2024</v>
       </c>
       <c r="K38" t="n">
-        <v>40337</v>
+        <v>41652</v>
       </c>
       <c r="L38" t="n">
-        <v>101819</v>
+        <v>109245</v>
       </c>
       <c r="M38" t="n">
-        <v>19628</v>
+        <v>20533</v>
       </c>
       <c r="N38" t="n">
-        <v>30092</v>
+        <v>30231</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>45874</v>
+        <v>45881</v>
       </c>
       <c r="P38" t="inlineStr">
         <is>
@@ -3160,16 +3160,16 @@
         </is>
       </c>
       <c r="R38" t="n">
-        <v>23988</v>
+        <v>25631</v>
       </c>
       <c r="S38" t="n">
-        <v>107548</v>
+        <v>113536</v>
       </c>
       <c r="T38" t="n">
-        <v>-83560</v>
+        <v>-87905</v>
       </c>
       <c r="U38" t="n">
-        <v>-50.98</v>
+        <v>-51.32</v>
       </c>
     </row>
     <row r="39">
@@ -3179,46 +3179,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>89286</v>
+        <v>103240</v>
       </c>
       <c r="C39" t="n">
-        <v>51209</v>
+        <v>59388</v>
       </c>
       <c r="D39" t="n">
-        <v>26611</v>
+        <v>19806</v>
       </c>
       <c r="E39" t="n">
-        <v>32730</v>
+        <v>35788</v>
       </c>
       <c r="F39" t="n">
-        <v>60560</v>
+        <v>78857</v>
       </c>
       <c r="G39" t="n">
-        <v>4179</v>
+        <v>4287</v>
       </c>
       <c r="H39" t="n">
-        <v>947</v>
+        <v>800</v>
       </c>
       <c r="I39" t="n">
-        <v>2745</v>
+        <v>3058</v>
       </c>
       <c r="J39" t="n">
-        <v>44088</v>
+        <v>42160</v>
       </c>
       <c r="K39" t="n">
-        <v>59991</v>
+        <v>62512</v>
       </c>
       <c r="L39" t="n">
-        <v>535</v>
+        <v>594</v>
       </c>
       <c r="M39" t="n">
-        <v>18268</v>
+        <v>26453</v>
       </c>
       <c r="N39" t="n">
-        <v>24198</v>
+        <v>18690</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>45874</v>
+        <v>45881</v>
       </c>
       <c r="P39" t="inlineStr">
         <is>
@@ -3231,16 +3231,16 @@
         </is>
       </c>
       <c r="R39" t="n">
-        <v>51209</v>
+        <v>59388</v>
       </c>
       <c r="S39" t="n">
-        <v>26611</v>
+        <v>19806</v>
       </c>
       <c r="T39" t="n">
-        <v>24598</v>
+        <v>39582</v>
       </c>
       <c r="U39" t="n">
-        <v>27.55</v>
+        <v>38.34</v>
       </c>
     </row>
     <row r="40">
@@ -3250,46 +3250,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>214849</v>
+        <v>221109</v>
       </c>
       <c r="C40" t="n">
-        <v>23589</v>
+        <v>20898</v>
       </c>
       <c r="D40" t="n">
-        <v>103009</v>
+        <v>110975</v>
       </c>
       <c r="E40" t="n">
-        <v>156289</v>
+        <v>162833</v>
       </c>
       <c r="F40" t="n">
-        <v>71412</v>
+        <v>69262</v>
       </c>
       <c r="G40" t="n">
-        <v>22218</v>
+        <v>23352</v>
       </c>
       <c r="H40" t="n">
-        <v>27675</v>
+        <v>26846</v>
       </c>
       <c r="I40" t="n">
-        <v>112191</v>
+        <v>117374</v>
       </c>
       <c r="J40" t="n">
-        <v>19502</v>
+        <v>18974</v>
       </c>
       <c r="K40" t="n">
-        <v>32291</v>
+        <v>32254</v>
       </c>
       <c r="L40" t="n">
-        <v>95910</v>
+        <v>103095</v>
       </c>
       <c r="M40" t="n">
-        <v>21819</v>
+        <v>20286</v>
       </c>
       <c r="N40" t="n">
-        <v>51711</v>
+        <v>51046</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>45874</v>
+        <v>45881</v>
       </c>
       <c r="P40" t="inlineStr">
         <is>
@@ -3302,16 +3302,16 @@
         </is>
       </c>
       <c r="R40" t="n">
-        <v>23589</v>
+        <v>20898</v>
       </c>
       <c r="S40" t="n">
-        <v>103009</v>
+        <v>110975</v>
       </c>
       <c r="T40" t="n">
-        <v>-79420</v>
+        <v>-90077</v>
       </c>
       <c r="U40" t="n">
-        <v>-36.97</v>
+        <v>-40.74</v>
       </c>
     </row>
     <row r="41">
@@ -3321,46 +3321,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>79837</v>
+        <v>80415</v>
       </c>
       <c r="C41" t="n">
-        <v>6806</v>
+        <v>6091</v>
       </c>
       <c r="D41" t="n">
-        <v>34183</v>
+        <v>34134</v>
       </c>
       <c r="E41" t="n">
-        <v>60532</v>
+        <v>60689</v>
       </c>
       <c r="F41" t="n">
-        <v>27419</v>
+        <v>27465</v>
       </c>
       <c r="G41" t="n">
-        <v>12062</v>
+        <v>13086</v>
       </c>
       <c r="H41" t="n">
-        <v>17798</v>
+        <v>18267</v>
       </c>
       <c r="I41" t="n">
-        <v>51220</v>
+        <v>51497</v>
       </c>
       <c r="J41" t="n">
-        <v>7383</v>
+        <v>7163</v>
       </c>
       <c r="K41" t="n">
-        <v>8198</v>
+        <v>8202</v>
       </c>
       <c r="L41" t="n">
-        <v>43084</v>
+        <v>45282</v>
       </c>
       <c r="M41" t="n">
-        <v>5286</v>
+        <v>4442</v>
       </c>
       <c r="N41" t="n">
-        <v>9001</v>
+        <v>6587</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>45874</v>
+        <v>45881</v>
       </c>
       <c r="P41" t="inlineStr">
         <is>
@@ -3373,16 +3373,16 @@
         </is>
       </c>
       <c r="R41" t="n">
-        <v>6806</v>
+        <v>6091</v>
       </c>
       <c r="S41" t="n">
-        <v>34183</v>
+        <v>34134</v>
       </c>
       <c r="T41" t="n">
-        <v>-27377</v>
+        <v>-28043</v>
       </c>
       <c r="U41" t="n">
-        <v>-34.29</v>
+        <v>-34.87</v>
       </c>
     </row>
     <row r="42">
@@ -3392,46 +3392,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>818360</v>
+        <v>824972</v>
       </c>
       <c r="C42" t="n">
-        <v>247357</v>
+        <v>246299</v>
       </c>
       <c r="D42" t="n">
-        <v>131398</v>
+        <v>130868</v>
       </c>
       <c r="E42" t="n">
-        <v>453569</v>
+        <v>458037</v>
       </c>
       <c r="F42" t="n">
-        <v>617114</v>
+        <v>625100</v>
       </c>
       <c r="G42" t="n">
-        <v>92215</v>
+        <v>96093</v>
       </c>
       <c r="H42" t="n">
-        <v>44629</v>
+        <v>44461</v>
       </c>
       <c r="I42" t="n">
-        <v>49171</v>
+        <v>50625</v>
       </c>
       <c r="J42" t="n">
-        <v>488915</v>
+        <v>504801</v>
       </c>
       <c r="K42" t="n">
-        <v>481035</v>
+        <v>499181</v>
       </c>
       <c r="L42" t="n">
-        <v>133610</v>
+        <v>131743</v>
       </c>
       <c r="M42" t="n">
-        <v>106098</v>
+        <v>100864</v>
       </c>
       <c r="N42" t="n">
-        <v>71890</v>
+        <v>65926</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>45874</v>
+        <v>45881</v>
       </c>
       <c r="P42" t="inlineStr">
         <is>
@@ -3444,16 +3444,16 @@
         </is>
       </c>
       <c r="R42" t="n">
-        <v>247357</v>
+        <v>246299</v>
       </c>
       <c r="S42" t="n">
-        <v>131398</v>
+        <v>130868</v>
       </c>
       <c r="T42" t="n">
-        <v>115959</v>
+        <v>115431</v>
       </c>
       <c r="U42" t="n">
-        <v>14.17</v>
+        <v>13.99</v>
       </c>
     </row>
     <row r="43">
@@ -3463,46 +3463,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>206254</v>
+        <v>216082</v>
       </c>
       <c r="C43" t="n">
-        <v>65635</v>
+        <v>73736</v>
       </c>
       <c r="D43" t="n">
-        <v>98938</v>
+        <v>112829</v>
       </c>
       <c r="E43" t="n">
-        <v>108854</v>
+        <v>109217</v>
       </c>
       <c r="F43" t="n">
-        <v>76211</v>
+        <v>73700</v>
       </c>
       <c r="G43" t="n">
-        <v>29306</v>
+        <v>30321</v>
       </c>
       <c r="H43" t="n">
-        <v>28646</v>
+        <v>26745</v>
       </c>
       <c r="I43" t="n">
-        <v>63775</v>
+        <v>62143</v>
       </c>
       <c r="J43" t="n">
-        <v>20155</v>
+        <v>20019</v>
       </c>
       <c r="K43" t="n">
-        <v>32304</v>
+        <v>43681</v>
       </c>
       <c r="L43" t="n">
-        <v>115629</v>
+        <v>115651</v>
       </c>
       <c r="M43" t="n">
-        <v>64904</v>
+        <v>63204</v>
       </c>
       <c r="N43" t="n">
-        <v>24932</v>
+        <v>35835</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>45874</v>
+        <v>45881</v>
       </c>
       <c r="P43" t="inlineStr">
         <is>
@@ -3515,16 +3515,16 @@
         </is>
       </c>
       <c r="R43" t="n">
-        <v>65635</v>
+        <v>73736</v>
       </c>
       <c r="S43" t="n">
-        <v>98938</v>
+        <v>112829</v>
       </c>
       <c r="T43" t="n">
-        <v>-33303</v>
+        <v>-39093</v>
       </c>
       <c r="U43" t="n">
-        <v>-16.15</v>
+        <v>-18.09</v>
       </c>
     </row>
     <row r="44">
@@ -3534,46 +3534,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>337378</v>
+        <v>351163</v>
       </c>
       <c r="C44" t="n">
-        <v>160258</v>
+        <v>164693</v>
       </c>
       <c r="D44" t="n">
-        <v>78252</v>
+        <v>90459</v>
       </c>
       <c r="E44" t="n">
-        <v>136734</v>
+        <v>147170</v>
       </c>
       <c r="F44" t="n">
-        <v>224075</v>
+        <v>221065</v>
       </c>
       <c r="G44" t="n">
-        <v>37362</v>
+        <v>35172</v>
       </c>
       <c r="H44" t="n">
-        <v>32027</v>
+        <v>35511</v>
       </c>
       <c r="I44" t="n">
-        <v>55228</v>
+        <v>67396</v>
       </c>
       <c r="J44" t="n">
-        <v>190843</v>
+        <v>186279</v>
       </c>
       <c r="K44" t="n">
-        <v>99799</v>
+        <v>101264</v>
       </c>
       <c r="L44" t="n">
-        <v>41669</v>
+        <v>41567</v>
       </c>
       <c r="M44" t="n">
-        <v>38441</v>
+        <v>38075</v>
       </c>
       <c r="N44" t="n">
-        <v>60091</v>
+        <v>73481</v>
       </c>
       <c r="O44" s="2" t="n">
-        <v>45874</v>
+        <v>45881</v>
       </c>
       <c r="P44" t="inlineStr">
         <is>
@@ -3586,16 +3586,16 @@
         </is>
       </c>
       <c r="R44" t="n">
-        <v>160258</v>
+        <v>164693</v>
       </c>
       <c r="S44" t="n">
-        <v>78252</v>
+        <v>90459</v>
       </c>
       <c r="T44" t="n">
-        <v>82006</v>
+        <v>74234</v>
       </c>
       <c r="U44" t="n">
-        <v>24.31</v>
+        <v>21.14</v>
       </c>
     </row>
     <row r="45">
@@ -3605,46 +3605,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176153</v>
+        <v>182397</v>
       </c>
       <c r="C45" t="n">
-        <v>105231</v>
+        <v>106539</v>
       </c>
       <c r="D45" t="n">
-        <v>37176</v>
+        <v>45300</v>
       </c>
       <c r="E45" t="n">
-        <v>63351</v>
+        <v>67876</v>
       </c>
       <c r="F45" t="n">
-        <v>135042</v>
+        <v>132724</v>
       </c>
       <c r="G45" t="n">
-        <v>6628</v>
+        <v>6499</v>
       </c>
       <c r="H45" t="n">
-        <v>2992</v>
+        <v>2890</v>
       </c>
       <c r="I45" t="n">
-        <v>10953</v>
+        <v>11451</v>
       </c>
       <c r="J45" t="n">
-        <v>69914</v>
+        <v>74912</v>
       </c>
       <c r="K45" t="n">
-        <v>69138</v>
+        <v>69120</v>
       </c>
       <c r="L45" t="n">
-        <v>35456</v>
+        <v>30329</v>
       </c>
       <c r="M45" t="n">
-        <v>73979</v>
+        <v>78458</v>
       </c>
       <c r="N45" t="n">
-        <v>56262</v>
+        <v>62040</v>
       </c>
       <c r="O45" s="2" t="n">
-        <v>45874</v>
+        <v>45881</v>
       </c>
       <c r="P45" t="inlineStr">
         <is>
@@ -3657,16 +3657,16 @@
         </is>
       </c>
       <c r="R45" t="n">
-        <v>105231</v>
+        <v>106539</v>
       </c>
       <c r="S45" t="n">
-        <v>37176</v>
+        <v>45300</v>
       </c>
       <c r="T45" t="n">
-        <v>68055</v>
+        <v>61239</v>
       </c>
       <c r="U45" t="n">
-        <v>38.63</v>
+        <v>33.57</v>
       </c>
     </row>
     <row r="46">
@@ -3676,46 +3676,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>48090</v>
+        <v>48240</v>
       </c>
       <c r="C46" t="n">
-        <v>11085</v>
+        <v>11160</v>
       </c>
       <c r="D46" t="n">
-        <v>15918</v>
+        <v>15847</v>
       </c>
       <c r="E46" t="n">
-        <v>27755</v>
+        <v>27937</v>
       </c>
       <c r="F46" t="n">
-        <v>21596</v>
+        <v>22138</v>
       </c>
       <c r="G46" t="n">
-        <v>3780</v>
+        <v>3806</v>
       </c>
       <c r="H46" t="n">
-        <v>5106</v>
+        <v>4918</v>
       </c>
       <c r="I46" t="n">
-        <v>17657</v>
+        <v>16614</v>
       </c>
       <c r="J46" t="n">
-        <v>8289</v>
+        <v>8177</v>
       </c>
       <c r="K46" t="n">
-        <v>11453</v>
+        <v>11314</v>
       </c>
       <c r="L46" t="n">
-        <v>13264</v>
+        <v>14993</v>
       </c>
       <c r="M46" t="n">
-        <v>6609</v>
+        <v>8959</v>
       </c>
       <c r="N46" t="n">
-        <v>13387</v>
+        <v>13149</v>
       </c>
       <c r="O46" s="2" t="n">
-        <v>45874</v>
+        <v>45881</v>
       </c>
       <c r="P46" t="inlineStr">
         <is>
@@ -3728,654 +3728,15 @@
         </is>
       </c>
       <c r="R46" t="n">
-        <v>11085</v>
+        <v>11160</v>
       </c>
       <c r="S46" t="n">
-        <v>15918</v>
+        <v>15847</v>
       </c>
       <c r="T46" t="n">
-        <v>-4833</v>
+        <v>-4687</v>
       </c>
       <c r="U46" t="n">
-        <v>-10.05</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>171294</v>
-      </c>
-      <c r="C47" t="n">
-        <v>25631</v>
-      </c>
-      <c r="D47" t="n">
-        <v>113536</v>
-      </c>
-      <c r="E47" t="n">
-        <v>114396</v>
-      </c>
-      <c r="F47" t="n">
-        <v>30163</v>
-      </c>
-      <c r="G47" t="n">
-        <v>24097</v>
-      </c>
-      <c r="H47" t="n">
-        <v>20425</v>
-      </c>
-      <c r="I47" t="n">
-        <v>71338</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2024</v>
-      </c>
-      <c r="K47" t="n">
-        <v>41652</v>
-      </c>
-      <c r="L47" t="n">
-        <v>109245</v>
-      </c>
-      <c r="M47" t="n">
-        <v>20533</v>
-      </c>
-      <c r="N47" t="n">
-        <v>30231</v>
-      </c>
-      <c r="O47" s="2" t="n">
-        <v>45881</v>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>Financial Futures</t>
-        </is>
-      </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>AUDUSD</t>
-        </is>
-      </c>
-      <c r="R47" t="n">
-        <v>25631</v>
-      </c>
-      <c r="S47" t="n">
-        <v>113536</v>
-      </c>
-      <c r="T47" t="n">
-        <v>-87905</v>
-      </c>
-      <c r="U47" t="n">
-        <v>-51.32</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>BRL</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>103240</v>
-      </c>
-      <c r="C48" t="n">
-        <v>59388</v>
-      </c>
-      <c r="D48" t="n">
-        <v>19806</v>
-      </c>
-      <c r="E48" t="n">
-        <v>35788</v>
-      </c>
-      <c r="F48" t="n">
-        <v>78857</v>
-      </c>
-      <c r="G48" t="n">
-        <v>4287</v>
-      </c>
-      <c r="H48" t="n">
-        <v>800</v>
-      </c>
-      <c r="I48" t="n">
-        <v>3058</v>
-      </c>
-      <c r="J48" t="n">
-        <v>42160</v>
-      </c>
-      <c r="K48" t="n">
-        <v>62512</v>
-      </c>
-      <c r="L48" t="n">
-        <v>594</v>
-      </c>
-      <c r="M48" t="n">
-        <v>26453</v>
-      </c>
-      <c r="N48" t="n">
-        <v>18690</v>
-      </c>
-      <c r="O48" s="2" t="n">
-        <v>45881</v>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>Financial Futures</t>
-        </is>
-      </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>USDBRL</t>
-        </is>
-      </c>
-      <c r="R48" t="n">
-        <v>59388</v>
-      </c>
-      <c r="S48" t="n">
-        <v>19806</v>
-      </c>
-      <c r="T48" t="n">
-        <v>39582</v>
-      </c>
-      <c r="U48" t="n">
-        <v>38.34</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>221109</v>
-      </c>
-      <c r="C49" t="n">
-        <v>20898</v>
-      </c>
-      <c r="D49" t="n">
-        <v>110975</v>
-      </c>
-      <c r="E49" t="n">
-        <v>162833</v>
-      </c>
-      <c r="F49" t="n">
-        <v>69262</v>
-      </c>
-      <c r="G49" t="n">
-        <v>23352</v>
-      </c>
-      <c r="H49" t="n">
-        <v>26846</v>
-      </c>
-      <c r="I49" t="n">
-        <v>117374</v>
-      </c>
-      <c r="J49" t="n">
-        <v>18974</v>
-      </c>
-      <c r="K49" t="n">
-        <v>32254</v>
-      </c>
-      <c r="L49" t="n">
-        <v>103095</v>
-      </c>
-      <c r="M49" t="n">
-        <v>20286</v>
-      </c>
-      <c r="N49" t="n">
-        <v>51046</v>
-      </c>
-      <c r="O49" s="2" t="n">
-        <v>45881</v>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>Financial Futures</t>
-        </is>
-      </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>USDCAD</t>
-        </is>
-      </c>
-      <c r="R49" t="n">
-        <v>20898</v>
-      </c>
-      <c r="S49" t="n">
-        <v>110975</v>
-      </c>
-      <c r="T49" t="n">
-        <v>-90077</v>
-      </c>
-      <c r="U49" t="n">
-        <v>-40.74</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>CHF</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>80415</v>
-      </c>
-      <c r="C50" t="n">
-        <v>6091</v>
-      </c>
-      <c r="D50" t="n">
-        <v>34134</v>
-      </c>
-      <c r="E50" t="n">
-        <v>60689</v>
-      </c>
-      <c r="F50" t="n">
-        <v>27465</v>
-      </c>
-      <c r="G50" t="n">
-        <v>13086</v>
-      </c>
-      <c r="H50" t="n">
-        <v>18267</v>
-      </c>
-      <c r="I50" t="n">
-        <v>51497</v>
-      </c>
-      <c r="J50" t="n">
-        <v>7163</v>
-      </c>
-      <c r="K50" t="n">
-        <v>8202</v>
-      </c>
-      <c r="L50" t="n">
-        <v>45282</v>
-      </c>
-      <c r="M50" t="n">
-        <v>4442</v>
-      </c>
-      <c r="N50" t="n">
-        <v>6587</v>
-      </c>
-      <c r="O50" s="2" t="n">
-        <v>45881</v>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>Financial Futures</t>
-        </is>
-      </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>USDCHF</t>
-        </is>
-      </c>
-      <c r="R50" t="n">
-        <v>6091</v>
-      </c>
-      <c r="S50" t="n">
-        <v>34134</v>
-      </c>
-      <c r="T50" t="n">
-        <v>-28043</v>
-      </c>
-      <c r="U50" t="n">
-        <v>-34.87</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>824972</v>
-      </c>
-      <c r="C51" t="n">
-        <v>246299</v>
-      </c>
-      <c r="D51" t="n">
-        <v>130868</v>
-      </c>
-      <c r="E51" t="n">
-        <v>458037</v>
-      </c>
-      <c r="F51" t="n">
-        <v>625100</v>
-      </c>
-      <c r="G51" t="n">
-        <v>96093</v>
-      </c>
-      <c r="H51" t="n">
-        <v>44461</v>
-      </c>
-      <c r="I51" t="n">
-        <v>50625</v>
-      </c>
-      <c r="J51" t="n">
-        <v>504801</v>
-      </c>
-      <c r="K51" t="n">
-        <v>499181</v>
-      </c>
-      <c r="L51" t="n">
-        <v>131743</v>
-      </c>
-      <c r="M51" t="n">
-        <v>100864</v>
-      </c>
-      <c r="N51" t="n">
-        <v>65926</v>
-      </c>
-      <c r="O51" s="2" t="n">
-        <v>45881</v>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>Financial Futures</t>
-        </is>
-      </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>EURUSD</t>
-        </is>
-      </c>
-      <c r="R51" t="n">
-        <v>246299</v>
-      </c>
-      <c r="S51" t="n">
-        <v>130868</v>
-      </c>
-      <c r="T51" t="n">
-        <v>115431</v>
-      </c>
-      <c r="U51" t="n">
-        <v>13.99</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>GBP</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>216082</v>
-      </c>
-      <c r="C52" t="n">
-        <v>73736</v>
-      </c>
-      <c r="D52" t="n">
-        <v>112829</v>
-      </c>
-      <c r="E52" t="n">
-        <v>109217</v>
-      </c>
-      <c r="F52" t="n">
-        <v>73700</v>
-      </c>
-      <c r="G52" t="n">
-        <v>30321</v>
-      </c>
-      <c r="H52" t="n">
-        <v>26745</v>
-      </c>
-      <c r="I52" t="n">
-        <v>62143</v>
-      </c>
-      <c r="J52" t="n">
-        <v>20019</v>
-      </c>
-      <c r="K52" t="n">
-        <v>43681</v>
-      </c>
-      <c r="L52" t="n">
-        <v>115651</v>
-      </c>
-      <c r="M52" t="n">
-        <v>63204</v>
-      </c>
-      <c r="N52" t="n">
-        <v>35835</v>
-      </c>
-      <c r="O52" s="2" t="n">
-        <v>45881</v>
-      </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>Financial Futures</t>
-        </is>
-      </c>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>GBPUSD</t>
-        </is>
-      </c>
-      <c r="R52" t="n">
-        <v>73736</v>
-      </c>
-      <c r="S52" t="n">
-        <v>112829</v>
-      </c>
-      <c r="T52" t="n">
-        <v>-39093</v>
-      </c>
-      <c r="U52" t="n">
-        <v>-18.09</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>JPY</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>351163</v>
-      </c>
-      <c r="C53" t="n">
-        <v>164693</v>
-      </c>
-      <c r="D53" t="n">
-        <v>90459</v>
-      </c>
-      <c r="E53" t="n">
-        <v>147170</v>
-      </c>
-      <c r="F53" t="n">
-        <v>221065</v>
-      </c>
-      <c r="G53" t="n">
-        <v>35172</v>
-      </c>
-      <c r="H53" t="n">
-        <v>35511</v>
-      </c>
-      <c r="I53" t="n">
-        <v>67396</v>
-      </c>
-      <c r="J53" t="n">
-        <v>186279</v>
-      </c>
-      <c r="K53" t="n">
-        <v>101264</v>
-      </c>
-      <c r="L53" t="n">
-        <v>41567</v>
-      </c>
-      <c r="M53" t="n">
-        <v>38075</v>
-      </c>
-      <c r="N53" t="n">
-        <v>73481</v>
-      </c>
-      <c r="O53" s="2" t="n">
-        <v>45881</v>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>Financial Futures</t>
-        </is>
-      </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>USDJPY</t>
-        </is>
-      </c>
-      <c r="R53" t="n">
-        <v>164693</v>
-      </c>
-      <c r="S53" t="n">
-        <v>90459</v>
-      </c>
-      <c r="T53" t="n">
-        <v>74234</v>
-      </c>
-      <c r="U53" t="n">
-        <v>21.14</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>MXN</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>182397</v>
-      </c>
-      <c r="C54" t="n">
-        <v>106539</v>
-      </c>
-      <c r="D54" t="n">
-        <v>45300</v>
-      </c>
-      <c r="E54" t="n">
-        <v>67876</v>
-      </c>
-      <c r="F54" t="n">
-        <v>132724</v>
-      </c>
-      <c r="G54" t="n">
-        <v>6499</v>
-      </c>
-      <c r="H54" t="n">
-        <v>2890</v>
-      </c>
-      <c r="I54" t="n">
-        <v>11451</v>
-      </c>
-      <c r="J54" t="n">
-        <v>74912</v>
-      </c>
-      <c r="K54" t="n">
-        <v>69120</v>
-      </c>
-      <c r="L54" t="n">
-        <v>30329</v>
-      </c>
-      <c r="M54" t="n">
-        <v>78458</v>
-      </c>
-      <c r="N54" t="n">
-        <v>62040</v>
-      </c>
-      <c r="O54" s="2" t="n">
-        <v>45881</v>
-      </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>Financial Futures</t>
-        </is>
-      </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>USDMXN</t>
-        </is>
-      </c>
-      <c r="R54" t="n">
-        <v>106539</v>
-      </c>
-      <c r="S54" t="n">
-        <v>45300</v>
-      </c>
-      <c r="T54" t="n">
-        <v>61239</v>
-      </c>
-      <c r="U54" t="n">
-        <v>33.57</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>NZD</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>48240</v>
-      </c>
-      <c r="C55" t="n">
-        <v>11160</v>
-      </c>
-      <c r="D55" t="n">
-        <v>15847</v>
-      </c>
-      <c r="E55" t="n">
-        <v>27937</v>
-      </c>
-      <c r="F55" t="n">
-        <v>22138</v>
-      </c>
-      <c r="G55" t="n">
-        <v>3806</v>
-      </c>
-      <c r="H55" t="n">
-        <v>4918</v>
-      </c>
-      <c r="I55" t="n">
-        <v>16614</v>
-      </c>
-      <c r="J55" t="n">
-        <v>8177</v>
-      </c>
-      <c r="K55" t="n">
-        <v>11314</v>
-      </c>
-      <c r="L55" t="n">
-        <v>14993</v>
-      </c>
-      <c r="M55" t="n">
-        <v>8959</v>
-      </c>
-      <c r="N55" t="n">
-        <v>13149</v>
-      </c>
-      <c r="O55" s="2" t="n">
-        <v>45881</v>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>Financial Futures</t>
-        </is>
-      </c>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>NZDUSD</t>
-        </is>
-      </c>
-      <c r="R55" t="n">
-        <v>11160</v>
-      </c>
-      <c r="S55" t="n">
-        <v>15847</v>
-      </c>
-      <c r="T55" t="n">
-        <v>-4687</v>
-      </c>
-      <c r="U55" t="n">
         <v>-9.720000000000001</v>
       </c>
     </row>
@@ -4390,7 +3751,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W43"/>
+  <dimension ref="A1:W36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4522,19 +3883,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>27140</v>
+        <v>27749</v>
       </c>
       <c r="C2" t="n">
-        <v>2767</v>
+        <v>2787</v>
       </c>
       <c r="D2" t="n">
-        <v>5328</v>
+        <v>5258</v>
       </c>
       <c r="E2" t="n">
-        <v>24201</v>
+        <v>24790</v>
       </c>
       <c r="F2" t="n">
-        <v>21742</v>
+        <v>22421</v>
       </c>
       <c r="G2" t="n">
         <v>152</v>
@@ -4543,16 +3904,16 @@
         <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>11191</v>
+        <v>11283</v>
       </c>
       <c r="J2" t="n">
-        <v>20044</v>
+        <v>20526</v>
       </c>
       <c r="K2" t="n">
-        <v>12044</v>
+        <v>12384</v>
       </c>
       <c r="L2" t="n">
-        <v>732</v>
+        <v>772</v>
       </c>
       <c r="M2" t="n">
         <v>240</v>
@@ -4561,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>45846</v>
+        <v>45853</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -4574,22 +3935,22 @@
         </is>
       </c>
       <c r="R2" t="n">
-        <v>2767</v>
+        <v>2787</v>
       </c>
       <c r="S2" t="n">
-        <v>5328</v>
+        <v>5258</v>
       </c>
       <c r="T2" t="n">
-        <v>-2561</v>
+        <v>-2471</v>
       </c>
       <c r="U2" t="n">
-        <v>-9.44</v>
+        <v>-8.9</v>
       </c>
       <c r="V2" t="n">
         <v>240</v>
       </c>
       <c r="W2" t="n">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="3">
@@ -4599,46 +3960,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>230251</v>
+        <v>224583</v>
       </c>
       <c r="C3" t="n">
-        <v>80843</v>
+        <v>75423</v>
       </c>
       <c r="D3" t="n">
-        <v>41239</v>
+        <v>34699</v>
       </c>
       <c r="E3" t="n">
-        <v>64469</v>
+        <v>63262</v>
       </c>
       <c r="F3" t="n">
-        <v>105571</v>
+        <v>105287</v>
       </c>
       <c r="G3" t="n">
-        <v>14535</v>
+        <v>15789</v>
       </c>
       <c r="H3" t="n">
-        <v>13037</v>
+        <v>14488</v>
       </c>
       <c r="I3" t="n">
-        <v>22021</v>
+        <v>24592</v>
       </c>
       <c r="J3" t="n">
-        <v>69164</v>
+        <v>71284</v>
       </c>
       <c r="K3" t="n">
-        <v>31787</v>
+        <v>29293</v>
       </c>
       <c r="L3" t="n">
-        <v>25746</v>
+        <v>24626</v>
       </c>
       <c r="M3" t="n">
-        <v>61597</v>
+        <v>57319</v>
       </c>
       <c r="N3" t="n">
-        <v>23959</v>
+        <v>18016</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>45846</v>
+        <v>45853</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -4651,22 +4012,22 @@
         </is>
       </c>
       <c r="R3" t="n">
-        <v>80843</v>
+        <v>75423</v>
       </c>
       <c r="S3" t="n">
-        <v>41239</v>
+        <v>34699</v>
       </c>
       <c r="T3" t="n">
-        <v>39604</v>
+        <v>40724</v>
       </c>
       <c r="U3" t="n">
-        <v>17.2</v>
+        <v>18.13</v>
       </c>
       <c r="V3" t="n">
-        <v>37638</v>
+        <v>39303</v>
       </c>
       <c r="W3" t="n">
-        <v>16.35</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="4">
@@ -4676,37 +4037,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163670</v>
+        <v>167890</v>
       </c>
       <c r="C4" t="n">
-        <v>56547</v>
+        <v>56495</v>
       </c>
       <c r="D4" t="n">
-        <v>32752</v>
+        <v>33079</v>
       </c>
       <c r="E4" t="n">
-        <v>76532</v>
+        <v>79940</v>
       </c>
       <c r="F4" t="n">
-        <v>93194</v>
+        <v>94746</v>
       </c>
       <c r="G4" t="n">
-        <v>22799</v>
+        <v>22667</v>
       </c>
       <c r="H4" t="n">
-        <v>29932</v>
+        <v>31277</v>
       </c>
       <c r="I4" t="n">
-        <v>22153</v>
+        <v>25371</v>
       </c>
       <c r="J4" t="n">
-        <v>41292</v>
+        <v>42814</v>
       </c>
       <c r="K4" t="n">
-        <v>46913</v>
+        <v>47103</v>
       </c>
       <c r="L4" t="n">
-        <v>44436</v>
+        <v>44466</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -4715,7 +4076,7 @@
         <v>2752</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>45846</v>
+        <v>45853</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -4728,22 +4089,22 @@
         </is>
       </c>
       <c r="R4" t="n">
-        <v>56547</v>
+        <v>56495</v>
       </c>
       <c r="S4" t="n">
-        <v>32752</v>
+        <v>33079</v>
       </c>
       <c r="T4" t="n">
-        <v>23795</v>
+        <v>23416</v>
       </c>
       <c r="U4" t="n">
-        <v>14.54</v>
+        <v>13.95</v>
       </c>
       <c r="V4" t="n">
         <v>-2752</v>
       </c>
       <c r="W4" t="n">
-        <v>-1.68</v>
+        <v>-1.64</v>
       </c>
     </row>
     <row r="5">
@@ -4753,46 +4114,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>443144</v>
+        <v>448531</v>
       </c>
       <c r="C5" t="n">
-        <v>261685</v>
+        <v>270227</v>
       </c>
       <c r="D5" t="n">
-        <v>58717</v>
+        <v>57112</v>
       </c>
       <c r="E5" t="n">
-        <v>71875</v>
+        <v>75989</v>
       </c>
       <c r="F5" t="n">
-        <v>310229</v>
+        <v>326677</v>
       </c>
       <c r="G5" t="n">
-        <v>56291</v>
+        <v>56976</v>
       </c>
       <c r="H5" t="n">
-        <v>20905</v>
+        <v>19403</v>
       </c>
       <c r="I5" t="n">
-        <v>13615</v>
+        <v>14716</v>
       </c>
       <c r="J5" t="n">
-        <v>60427</v>
+        <v>61452</v>
       </c>
       <c r="K5" t="n">
-        <v>35359</v>
+        <v>33649</v>
       </c>
       <c r="L5" t="n">
-        <v>226901</v>
+        <v>237601</v>
       </c>
       <c r="M5" t="n">
-        <v>164685</v>
+        <v>172657</v>
       </c>
       <c r="N5" t="n">
-        <v>35743</v>
+        <v>35930</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>45846</v>
+        <v>45853</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
@@ -4805,22 +4166,22 @@
         </is>
       </c>
       <c r="R5" t="n">
-        <v>261685</v>
+        <v>270227</v>
       </c>
       <c r="S5" t="n">
-        <v>58717</v>
+        <v>57112</v>
       </c>
       <c r="T5" t="n">
-        <v>202968</v>
+        <v>213115</v>
       </c>
       <c r="U5" t="n">
-        <v>45.8</v>
+        <v>47.51</v>
       </c>
       <c r="V5" t="n">
-        <v>128942</v>
+        <v>136727</v>
       </c>
       <c r="W5" t="n">
-        <v>29.1</v>
+        <v>30.48</v>
       </c>
     </row>
     <row r="6">
@@ -4830,46 +4191,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20732</v>
+        <v>19867</v>
       </c>
       <c r="C6" t="n">
-        <v>8650</v>
+        <v>8344</v>
       </c>
       <c r="D6" t="n">
-        <v>13384</v>
+        <v>11925</v>
       </c>
       <c r="E6" t="n">
-        <v>7694</v>
+        <v>6945</v>
       </c>
       <c r="F6" t="n">
-        <v>4509</v>
+        <v>4543</v>
       </c>
       <c r="G6" t="n">
-        <v>2837</v>
+        <v>3042</v>
       </c>
       <c r="H6" t="n">
-        <v>1288</v>
+        <v>1863</v>
       </c>
       <c r="I6" t="n">
-        <v>806</v>
+        <v>555</v>
       </c>
       <c r="J6" t="n">
-        <v>2857</v>
+        <v>3327</v>
       </c>
       <c r="K6" t="n">
-        <v>6728</v>
+        <v>5805</v>
       </c>
       <c r="L6" t="n">
-        <v>1492</v>
+        <v>631</v>
       </c>
       <c r="M6" t="n">
-        <v>5420</v>
+        <v>5946</v>
       </c>
       <c r="N6" t="n">
-        <v>10653</v>
+        <v>8948</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>45846</v>
+        <v>45853</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -4882,22 +4243,22 @@
         </is>
       </c>
       <c r="R6" t="n">
-        <v>8650</v>
+        <v>8344</v>
       </c>
       <c r="S6" t="n">
-        <v>13384</v>
+        <v>11925</v>
       </c>
       <c r="T6" t="n">
-        <v>-4734</v>
+        <v>-3581</v>
       </c>
       <c r="U6" t="n">
-        <v>-22.83</v>
+        <v>-18.02</v>
       </c>
       <c r="V6" t="n">
-        <v>-5233</v>
+        <v>-3002</v>
       </c>
       <c r="W6" t="n">
-        <v>-25.24</v>
+        <v>-15.11</v>
       </c>
     </row>
     <row r="7">
@@ -4907,46 +4268,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>91757</v>
+        <v>91718</v>
       </c>
       <c r="C7" t="n">
-        <v>56239</v>
+        <v>55186</v>
       </c>
       <c r="D7" t="n">
-        <v>35465</v>
+        <v>35884</v>
       </c>
       <c r="E7" t="n">
-        <v>18927</v>
+        <v>19611</v>
       </c>
       <c r="F7" t="n">
-        <v>45278</v>
+        <v>42460</v>
       </c>
       <c r="G7" t="n">
-        <v>11102</v>
+        <v>10187</v>
       </c>
       <c r="H7" t="n">
-        <v>5525</v>
+        <v>6640</v>
       </c>
       <c r="I7" t="n">
-        <v>2497</v>
+        <v>2451</v>
       </c>
       <c r="J7" t="n">
-        <v>27624</v>
+        <v>28417</v>
       </c>
       <c r="K7" t="n">
-        <v>15979</v>
+        <v>16522</v>
       </c>
       <c r="L7" t="n">
-        <v>17203</v>
+        <v>13405</v>
       </c>
       <c r="M7" t="n">
-        <v>38249</v>
+        <v>37918</v>
       </c>
       <c r="N7" t="n">
-        <v>25981</v>
+        <v>26464</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>45846</v>
+        <v>45853</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
@@ -4959,22 +4320,22 @@
         </is>
       </c>
       <c r="R7" t="n">
-        <v>56239</v>
+        <v>55186</v>
       </c>
       <c r="S7" t="n">
-        <v>35465</v>
+        <v>35884</v>
       </c>
       <c r="T7" t="n">
-        <v>20774</v>
+        <v>19302</v>
       </c>
       <c r="U7" t="n">
-        <v>22.64</v>
+        <v>21.04</v>
       </c>
       <c r="V7" t="n">
-        <v>12268</v>
+        <v>11454</v>
       </c>
       <c r="W7" t="n">
-        <v>13.37</v>
+        <v>12.49</v>
       </c>
     </row>
     <row r="8">
@@ -4984,46 +4345,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>162803</v>
+        <v>171474</v>
       </c>
       <c r="C8" t="n">
-        <v>80779</v>
+        <v>85022</v>
       </c>
       <c r="D8" t="n">
-        <v>22258</v>
+        <v>25574</v>
       </c>
       <c r="E8" t="n">
-        <v>37094</v>
+        <v>35466</v>
       </c>
       <c r="F8" t="n">
-        <v>116689</v>
+        <v>115114</v>
       </c>
       <c r="G8" t="n">
-        <v>31764</v>
+        <v>32421</v>
       </c>
       <c r="H8" t="n">
-        <v>10690</v>
+        <v>12221</v>
       </c>
       <c r="I8" t="n">
-        <v>5030</v>
+        <v>4143</v>
       </c>
       <c r="J8" t="n">
-        <v>32301</v>
+        <v>34512</v>
       </c>
       <c r="K8" t="n">
-        <v>27804</v>
+        <v>27238</v>
       </c>
       <c r="L8" t="n">
-        <v>80128</v>
+        <v>76517</v>
       </c>
       <c r="M8" t="n">
-        <v>58991</v>
+        <v>59766</v>
       </c>
       <c r="N8" t="n">
-        <v>16235</v>
+        <v>16560</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>45846</v>
+        <v>45853</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
@@ -5036,22 +4397,22 @@
         </is>
       </c>
       <c r="R8" t="n">
-        <v>80779</v>
+        <v>85022</v>
       </c>
       <c r="S8" t="n">
-        <v>22258</v>
+        <v>25574</v>
       </c>
       <c r="T8" t="n">
-        <v>58521</v>
+        <v>59448</v>
       </c>
       <c r="U8" t="n">
-        <v>35.95</v>
+        <v>34.67</v>
       </c>
       <c r="V8" t="n">
-        <v>42756</v>
+        <v>43206</v>
       </c>
       <c r="W8" t="n">
-        <v>26.26</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="9">
@@ -5061,19 +4422,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>27749</v>
+        <v>28129</v>
       </c>
       <c r="C9" t="n">
-        <v>2787</v>
+        <v>2807</v>
       </c>
       <c r="D9" t="n">
-        <v>5258</v>
+        <v>5398</v>
       </c>
       <c r="E9" t="n">
-        <v>24790</v>
+        <v>25150</v>
       </c>
       <c r="F9" t="n">
-        <v>22421</v>
+        <v>22661</v>
       </c>
       <c r="G9" t="n">
         <v>152</v>
@@ -5082,16 +4443,16 @@
         <v>50</v>
       </c>
       <c r="I9" t="n">
-        <v>11283</v>
+        <v>11288</v>
       </c>
       <c r="J9" t="n">
-        <v>20526</v>
+        <v>20766</v>
       </c>
       <c r="K9" t="n">
-        <v>12384</v>
+        <v>12599</v>
       </c>
       <c r="L9" t="n">
-        <v>772</v>
+        <v>632</v>
       </c>
       <c r="M9" t="n">
         <v>240</v>
@@ -5100,7 +4461,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>45853</v>
+        <v>45860</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
@@ -5113,22 +4474,22 @@
         </is>
       </c>
       <c r="R9" t="n">
-        <v>2787</v>
+        <v>2807</v>
       </c>
       <c r="S9" t="n">
-        <v>5258</v>
+        <v>5398</v>
       </c>
       <c r="T9" t="n">
-        <v>-2471</v>
+        <v>-2591</v>
       </c>
       <c r="U9" t="n">
-        <v>-8.9</v>
+        <v>-9.210000000000001</v>
       </c>
       <c r="V9" t="n">
         <v>240</v>
       </c>
       <c r="W9" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="10">
@@ -5138,46 +4499,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>224583</v>
+        <v>228192</v>
       </c>
       <c r="C10" t="n">
-        <v>75423</v>
+        <v>77637</v>
       </c>
       <c r="D10" t="n">
-        <v>34699</v>
+        <v>37815</v>
       </c>
       <c r="E10" t="n">
-        <v>63262</v>
+        <v>66215</v>
       </c>
       <c r="F10" t="n">
-        <v>105287</v>
+        <v>106829</v>
       </c>
       <c r="G10" t="n">
-        <v>15789</v>
+        <v>15779</v>
       </c>
       <c r="H10" t="n">
-        <v>14488</v>
+        <v>14987</v>
       </c>
       <c r="I10" t="n">
-        <v>24592</v>
+        <v>24363</v>
       </c>
       <c r="J10" t="n">
-        <v>71284</v>
+        <v>70608</v>
       </c>
       <c r="K10" t="n">
-        <v>29293</v>
+        <v>30724</v>
       </c>
       <c r="L10" t="n">
-        <v>24626</v>
+        <v>25093</v>
       </c>
       <c r="M10" t="n">
-        <v>57319</v>
+        <v>58908</v>
       </c>
       <c r="N10" t="n">
-        <v>18016</v>
+        <v>19629</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>45853</v>
+        <v>45860</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
@@ -5190,22 +4551,22 @@
         </is>
       </c>
       <c r="R10" t="n">
-        <v>75423</v>
+        <v>77637</v>
       </c>
       <c r="S10" t="n">
-        <v>34699</v>
+        <v>37815</v>
       </c>
       <c r="T10" t="n">
-        <v>40724</v>
+        <v>39822</v>
       </c>
       <c r="U10" t="n">
-        <v>18.13</v>
+        <v>17.45</v>
       </c>
       <c r="V10" t="n">
-        <v>39303</v>
+        <v>39279</v>
       </c>
       <c r="W10" t="n">
-        <v>17.5</v>
+        <v>17.21</v>
       </c>
     </row>
     <row r="11">
@@ -5215,37 +4576,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>167890</v>
+        <v>176243</v>
       </c>
       <c r="C11" t="n">
-        <v>56495</v>
+        <v>59883</v>
       </c>
       <c r="D11" t="n">
-        <v>33079</v>
+        <v>33892</v>
       </c>
       <c r="E11" t="n">
-        <v>79940</v>
+        <v>84794</v>
       </c>
       <c r="F11" t="n">
-        <v>94746</v>
+        <v>103048</v>
       </c>
       <c r="G11" t="n">
-        <v>22667</v>
+        <v>22359</v>
       </c>
       <c r="H11" t="n">
-        <v>31277</v>
+        <v>30096</v>
       </c>
       <c r="I11" t="n">
-        <v>25371</v>
+        <v>29620</v>
       </c>
       <c r="J11" t="n">
-        <v>42814</v>
+        <v>48314</v>
       </c>
       <c r="K11" t="n">
-        <v>47103</v>
+        <v>47480</v>
       </c>
       <c r="L11" t="n">
-        <v>44466</v>
+        <v>47040</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -5254,7 +4615,7 @@
         <v>2752</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>45853</v>
+        <v>45860</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
@@ -5267,22 +4628,22 @@
         </is>
       </c>
       <c r="R11" t="n">
-        <v>56495</v>
+        <v>59883</v>
       </c>
       <c r="S11" t="n">
-        <v>33079</v>
+        <v>33892</v>
       </c>
       <c r="T11" t="n">
-        <v>23416</v>
+        <v>25991</v>
       </c>
       <c r="U11" t="n">
-        <v>13.95</v>
+        <v>14.75</v>
       </c>
       <c r="V11" t="n">
         <v>-2752</v>
       </c>
       <c r="W11" t="n">
-        <v>-1.64</v>
+        <v>-1.56</v>
       </c>
     </row>
     <row r="12">
@@ -5292,46 +4653,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>448531</v>
+        <v>489423</v>
       </c>
       <c r="C12" t="n">
-        <v>270227</v>
+        <v>311949</v>
       </c>
       <c r="D12" t="n">
-        <v>57112</v>
+        <v>58911</v>
       </c>
       <c r="E12" t="n">
-        <v>75989</v>
+        <v>76726</v>
       </c>
       <c r="F12" t="n">
-        <v>326677</v>
+        <v>359063</v>
       </c>
       <c r="G12" t="n">
-        <v>56976</v>
+        <v>54052</v>
       </c>
       <c r="H12" t="n">
-        <v>19403</v>
+        <v>24753</v>
       </c>
       <c r="I12" t="n">
-        <v>14716</v>
+        <v>11207</v>
       </c>
       <c r="J12" t="n">
-        <v>61452</v>
+        <v>62569</v>
       </c>
       <c r="K12" t="n">
-        <v>33649</v>
+        <v>33299</v>
       </c>
       <c r="L12" t="n">
-        <v>237601</v>
+        <v>264274</v>
       </c>
       <c r="M12" t="n">
-        <v>172657</v>
+        <v>194753</v>
       </c>
       <c r="N12" t="n">
-        <v>35930</v>
+        <v>34819</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>45853</v>
+        <v>45860</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
@@ -5344,22 +4705,22 @@
         </is>
       </c>
       <c r="R12" t="n">
-        <v>270227</v>
+        <v>311949</v>
       </c>
       <c r="S12" t="n">
-        <v>57112</v>
+        <v>58911</v>
       </c>
       <c r="T12" t="n">
-        <v>213115</v>
+        <v>253038</v>
       </c>
       <c r="U12" t="n">
-        <v>47.51</v>
+        <v>51.7</v>
       </c>
       <c r="V12" t="n">
-        <v>136727</v>
+        <v>159934</v>
       </c>
       <c r="W12" t="n">
-        <v>30.48</v>
+        <v>32.68</v>
       </c>
     </row>
     <row r="13">
@@ -5369,46 +4730,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19867</v>
+        <v>20819</v>
       </c>
       <c r="C13" t="n">
-        <v>8344</v>
+        <v>8991</v>
       </c>
       <c r="D13" t="n">
-        <v>11925</v>
+        <v>11291</v>
       </c>
       <c r="E13" t="n">
-        <v>6945</v>
+        <v>7341</v>
       </c>
       <c r="F13" t="n">
-        <v>4543</v>
+        <v>6389</v>
       </c>
       <c r="G13" t="n">
-        <v>3042</v>
+        <v>3155</v>
       </c>
       <c r="H13" t="n">
-        <v>1863</v>
+        <v>1807</v>
       </c>
       <c r="I13" t="n">
-        <v>555</v>
+        <v>669</v>
       </c>
       <c r="J13" t="n">
-        <v>3327</v>
+        <v>3280</v>
       </c>
       <c r="K13" t="n">
-        <v>5805</v>
+        <v>6081</v>
       </c>
       <c r="L13" t="n">
-        <v>631</v>
+        <v>2518</v>
       </c>
       <c r="M13" t="n">
-        <v>5946</v>
+        <v>6256</v>
       </c>
       <c r="N13" t="n">
-        <v>8948</v>
+        <v>8873</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>45853</v>
+        <v>45860</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
@@ -5421,22 +4782,22 @@
         </is>
       </c>
       <c r="R13" t="n">
-        <v>8344</v>
+        <v>8991</v>
       </c>
       <c r="S13" t="n">
-        <v>11925</v>
+        <v>11291</v>
       </c>
       <c r="T13" t="n">
-        <v>-3581</v>
+        <v>-2300</v>
       </c>
       <c r="U13" t="n">
-        <v>-18.02</v>
+        <v>-11.05</v>
       </c>
       <c r="V13" t="n">
-        <v>-3002</v>
+        <v>-2617</v>
       </c>
       <c r="W13" t="n">
-        <v>-15.11</v>
+        <v>-12.57</v>
       </c>
     </row>
     <row r="14">
@@ -5446,46 +4807,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>91718</v>
+        <v>90701</v>
       </c>
       <c r="C14" t="n">
-        <v>55186</v>
+        <v>55180</v>
       </c>
       <c r="D14" t="n">
-        <v>35884</v>
+        <v>34505</v>
       </c>
       <c r="E14" t="n">
-        <v>19611</v>
+        <v>17773</v>
       </c>
       <c r="F14" t="n">
-        <v>42460</v>
+        <v>41798</v>
       </c>
       <c r="G14" t="n">
-        <v>10187</v>
+        <v>10028</v>
       </c>
       <c r="H14" t="n">
-        <v>6640</v>
+        <v>6678</v>
       </c>
       <c r="I14" t="n">
-        <v>2451</v>
+        <v>2679</v>
       </c>
       <c r="J14" t="n">
-        <v>28417</v>
+        <v>24829</v>
       </c>
       <c r="K14" t="n">
-        <v>16522</v>
+        <v>14278</v>
       </c>
       <c r="L14" t="n">
-        <v>13405</v>
+        <v>16153</v>
       </c>
       <c r="M14" t="n">
-        <v>37918</v>
+        <v>38227</v>
       </c>
       <c r="N14" t="n">
-        <v>26464</v>
+        <v>23105</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>45853</v>
+        <v>45860</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
@@ -5498,22 +4859,22 @@
         </is>
       </c>
       <c r="R14" t="n">
-        <v>55186</v>
+        <v>55180</v>
       </c>
       <c r="S14" t="n">
-        <v>35884</v>
+        <v>34505</v>
       </c>
       <c r="T14" t="n">
-        <v>19302</v>
+        <v>20675</v>
       </c>
       <c r="U14" t="n">
-        <v>21.04</v>
+        <v>22.79</v>
       </c>
       <c r="V14" t="n">
-        <v>11454</v>
+        <v>15122</v>
       </c>
       <c r="W14" t="n">
-        <v>12.49</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="15">
@@ -5523,46 +4884,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>171474</v>
+        <v>173679</v>
       </c>
       <c r="C15" t="n">
-        <v>85022</v>
+        <v>85678</v>
       </c>
       <c r="D15" t="n">
-        <v>25574</v>
+        <v>25058</v>
       </c>
       <c r="E15" t="n">
-        <v>35466</v>
+        <v>36803</v>
       </c>
       <c r="F15" t="n">
-        <v>115114</v>
+        <v>116030</v>
       </c>
       <c r="G15" t="n">
-        <v>32421</v>
+        <v>31942</v>
       </c>
       <c r="H15" t="n">
-        <v>12221</v>
+        <v>13335</v>
       </c>
       <c r="I15" t="n">
-        <v>4143</v>
+        <v>5089</v>
       </c>
       <c r="J15" t="n">
-        <v>34512</v>
+        <v>34916</v>
       </c>
       <c r="K15" t="n">
-        <v>27238</v>
+        <v>27795</v>
       </c>
       <c r="L15" t="n">
-        <v>76517</v>
+        <v>77195</v>
       </c>
       <c r="M15" t="n">
-        <v>59766</v>
+        <v>60294</v>
       </c>
       <c r="N15" t="n">
-        <v>16560</v>
+        <v>16280</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>45853</v>
+        <v>45860</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
@@ -5575,22 +4936,22 @@
         </is>
       </c>
       <c r="R15" t="n">
-        <v>85022</v>
+        <v>85678</v>
       </c>
       <c r="S15" t="n">
-        <v>25574</v>
+        <v>25058</v>
       </c>
       <c r="T15" t="n">
-        <v>59448</v>
+        <v>60620</v>
       </c>
       <c r="U15" t="n">
-        <v>34.67</v>
+        <v>34.9</v>
       </c>
       <c r="V15" t="n">
-        <v>43206</v>
+        <v>44014</v>
       </c>
       <c r="W15" t="n">
-        <v>25.2</v>
+        <v>25.34</v>
       </c>
     </row>
     <row r="16">
@@ -5600,19 +4961,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>28129</v>
+        <v>29716</v>
       </c>
       <c r="C16" t="n">
-        <v>2807</v>
+        <v>2832</v>
       </c>
       <c r="D16" t="n">
-        <v>5398</v>
+        <v>5768</v>
       </c>
       <c r="E16" t="n">
-        <v>25150</v>
+        <v>26682</v>
       </c>
       <c r="F16" t="n">
-        <v>22661</v>
+        <v>23848</v>
       </c>
       <c r="G16" t="n">
         <v>152</v>
@@ -5621,25 +4982,25 @@
         <v>50</v>
       </c>
       <c r="I16" t="n">
-        <v>11288</v>
+        <v>12180</v>
       </c>
       <c r="J16" t="n">
-        <v>20766</v>
+        <v>21948</v>
       </c>
       <c r="K16" t="n">
-        <v>12599</v>
+        <v>13194</v>
       </c>
       <c r="L16" t="n">
-        <v>632</v>
+        <v>592</v>
       </c>
       <c r="M16" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>45860</v>
+        <v>45867</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
@@ -5652,22 +5013,22 @@
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2807</v>
+        <v>2832</v>
       </c>
       <c r="S16" t="n">
-        <v>5398</v>
+        <v>5768</v>
       </c>
       <c r="T16" t="n">
-        <v>-2591</v>
+        <v>-2936</v>
       </c>
       <c r="U16" t="n">
-        <v>-9.210000000000001</v>
+        <v>-9.880000000000001</v>
       </c>
       <c r="V16" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -5677,46 +5038,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>228192</v>
+        <v>228444</v>
       </c>
       <c r="C17" t="n">
-        <v>77637</v>
+        <v>74650</v>
       </c>
       <c r="D17" t="n">
-        <v>37815</v>
+        <v>37303</v>
       </c>
       <c r="E17" t="n">
-        <v>66215</v>
+        <v>67232</v>
       </c>
       <c r="F17" t="n">
-        <v>106829</v>
+        <v>104308</v>
       </c>
       <c r="G17" t="n">
-        <v>15779</v>
+        <v>13915</v>
       </c>
       <c r="H17" t="n">
-        <v>14987</v>
+        <v>14186</v>
       </c>
       <c r="I17" t="n">
-        <v>24363</v>
+        <v>25092</v>
       </c>
       <c r="J17" t="n">
-        <v>70608</v>
+        <v>67474</v>
       </c>
       <c r="K17" t="n">
-        <v>30724</v>
+        <v>30905</v>
       </c>
       <c r="L17" t="n">
-        <v>25093</v>
+        <v>25599</v>
       </c>
       <c r="M17" t="n">
-        <v>58908</v>
+        <v>56672</v>
       </c>
       <c r="N17" t="n">
-        <v>19629</v>
+        <v>20012</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>45860</v>
+        <v>45867</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
@@ -5729,22 +5090,22 @@
         </is>
       </c>
       <c r="R17" t="n">
-        <v>77637</v>
+        <v>74650</v>
       </c>
       <c r="S17" t="n">
-        <v>37815</v>
+        <v>37303</v>
       </c>
       <c r="T17" t="n">
-        <v>39822</v>
+        <v>37347</v>
       </c>
       <c r="U17" t="n">
-        <v>17.45</v>
+        <v>16.35</v>
       </c>
       <c r="V17" t="n">
-        <v>39279</v>
+        <v>36660</v>
       </c>
       <c r="W17" t="n">
-        <v>17.21</v>
+        <v>16.05</v>
       </c>
     </row>
     <row r="18">
@@ -5754,46 +5115,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176243</v>
+        <v>182334</v>
       </c>
       <c r="C18" t="n">
-        <v>59883</v>
+        <v>61302</v>
       </c>
       <c r="D18" t="n">
-        <v>33892</v>
+        <v>33065</v>
       </c>
       <c r="E18" t="n">
-        <v>84794</v>
+        <v>87596</v>
       </c>
       <c r="F18" t="n">
-        <v>103048</v>
+        <v>107805</v>
       </c>
       <c r="G18" t="n">
-        <v>22359</v>
+        <v>22843</v>
       </c>
       <c r="H18" t="n">
-        <v>30096</v>
+        <v>30871</v>
       </c>
       <c r="I18" t="n">
-        <v>29620</v>
+        <v>30637</v>
       </c>
       <c r="J18" t="n">
-        <v>48314</v>
+        <v>51481</v>
       </c>
       <c r="K18" t="n">
-        <v>47480</v>
+        <v>48886</v>
       </c>
       <c r="L18" t="n">
-        <v>47040</v>
+        <v>48251</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>2752</v>
+        <v>2776</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>45860</v>
+        <v>45867</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
@@ -5806,22 +5167,22 @@
         </is>
       </c>
       <c r="R18" t="n">
-        <v>59883</v>
+        <v>61302</v>
       </c>
       <c r="S18" t="n">
-        <v>33892</v>
+        <v>33065</v>
       </c>
       <c r="T18" t="n">
-        <v>25991</v>
+        <v>28237</v>
       </c>
       <c r="U18" t="n">
-        <v>14.75</v>
+        <v>15.49</v>
       </c>
       <c r="V18" t="n">
-        <v>-2752</v>
+        <v>-2776</v>
       </c>
       <c r="W18" t="n">
-        <v>-1.56</v>
+        <v>-1.52</v>
       </c>
     </row>
     <row r="19">
@@ -5831,46 +5192,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>489423</v>
+        <v>445259</v>
       </c>
       <c r="C19" t="n">
-        <v>311949</v>
+        <v>281241</v>
       </c>
       <c r="D19" t="n">
-        <v>58911</v>
+        <v>57645</v>
       </c>
       <c r="E19" t="n">
-        <v>76726</v>
+        <v>79093</v>
       </c>
       <c r="F19" t="n">
-        <v>359063</v>
+        <v>338172</v>
       </c>
       <c r="G19" t="n">
-        <v>54052</v>
+        <v>53216</v>
       </c>
       <c r="H19" t="n">
-        <v>24753</v>
+        <v>17733</v>
       </c>
       <c r="I19" t="n">
-        <v>11207</v>
+        <v>12294</v>
       </c>
       <c r="J19" t="n">
-        <v>62569</v>
+        <v>60464</v>
       </c>
       <c r="K19" t="n">
-        <v>33299</v>
+        <v>39149</v>
       </c>
       <c r="L19" t="n">
-        <v>264274</v>
+        <v>250058</v>
       </c>
       <c r="M19" t="n">
-        <v>194753</v>
+        <v>170918</v>
       </c>
       <c r="N19" t="n">
-        <v>34819</v>
+        <v>36662</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>45860</v>
+        <v>45867</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
@@ -5883,22 +5244,22 @@
         </is>
       </c>
       <c r="R19" t="n">
-        <v>311949</v>
+        <v>281241</v>
       </c>
       <c r="S19" t="n">
-        <v>58911</v>
+        <v>57645</v>
       </c>
       <c r="T19" t="n">
-        <v>253038</v>
+        <v>223596</v>
       </c>
       <c r="U19" t="n">
-        <v>51.7</v>
+        <v>50.22</v>
       </c>
       <c r="V19" t="n">
-        <v>159934</v>
+        <v>134256</v>
       </c>
       <c r="W19" t="n">
-        <v>32.68</v>
+        <v>30.15</v>
       </c>
     </row>
     <row r="20">
@@ -5908,46 +5269,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>20819</v>
+        <v>20417</v>
       </c>
       <c r="C20" t="n">
-        <v>8991</v>
+        <v>8997</v>
       </c>
       <c r="D20" t="n">
-        <v>11291</v>
+        <v>10850</v>
       </c>
       <c r="E20" t="n">
-        <v>7341</v>
+        <v>6955</v>
       </c>
       <c r="F20" t="n">
-        <v>6389</v>
+        <v>6449</v>
       </c>
       <c r="G20" t="n">
-        <v>3155</v>
+        <v>3021</v>
       </c>
       <c r="H20" t="n">
-        <v>1807</v>
+        <v>1674</v>
       </c>
       <c r="I20" t="n">
-        <v>669</v>
+        <v>642</v>
       </c>
       <c r="J20" t="n">
-        <v>3280</v>
+        <v>3507</v>
       </c>
       <c r="K20" t="n">
-        <v>6081</v>
+        <v>5945</v>
       </c>
       <c r="L20" t="n">
-        <v>2518</v>
+        <v>2574</v>
       </c>
       <c r="M20" t="n">
-        <v>6256</v>
+        <v>6445</v>
       </c>
       <c r="N20" t="n">
-        <v>8873</v>
+        <v>8484</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>45860</v>
+        <v>45867</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
@@ -5960,22 +5321,22 @@
         </is>
       </c>
       <c r="R20" t="n">
-        <v>8991</v>
+        <v>8997</v>
       </c>
       <c r="S20" t="n">
-        <v>11291</v>
+        <v>10850</v>
       </c>
       <c r="T20" t="n">
-        <v>-2300</v>
+        <v>-1853</v>
       </c>
       <c r="U20" t="n">
-        <v>-11.05</v>
+        <v>-9.08</v>
       </c>
       <c r="V20" t="n">
-        <v>-2617</v>
+        <v>-2039</v>
       </c>
       <c r="W20" t="n">
-        <v>-12.57</v>
+        <v>-9.99</v>
       </c>
     </row>
     <row r="21">
@@ -5985,46 +5346,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>90701</v>
+        <v>88178</v>
       </c>
       <c r="C21" t="n">
-        <v>55180</v>
+        <v>52572</v>
       </c>
       <c r="D21" t="n">
-        <v>34505</v>
+        <v>32004</v>
       </c>
       <c r="E21" t="n">
-        <v>17773</v>
+        <v>17175</v>
       </c>
       <c r="F21" t="n">
-        <v>41798</v>
+        <v>42201</v>
       </c>
       <c r="G21" t="n">
-        <v>10028</v>
+        <v>10005</v>
       </c>
       <c r="H21" t="n">
-        <v>6678</v>
+        <v>5547</v>
       </c>
       <c r="I21" t="n">
-        <v>2679</v>
+        <v>2720</v>
       </c>
       <c r="J21" t="n">
-        <v>24829</v>
+        <v>24742</v>
       </c>
       <c r="K21" t="n">
-        <v>14278</v>
+        <v>13649</v>
       </c>
       <c r="L21" t="n">
-        <v>16153</v>
+        <v>16653</v>
       </c>
       <c r="M21" t="n">
-        <v>38227</v>
+        <v>36926</v>
       </c>
       <c r="N21" t="n">
-        <v>23105</v>
+        <v>21827</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>45860</v>
+        <v>45867</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
@@ -6037,22 +5398,22 @@
         </is>
       </c>
       <c r="R21" t="n">
-        <v>55180</v>
+        <v>52572</v>
       </c>
       <c r="S21" t="n">
-        <v>34505</v>
+        <v>32004</v>
       </c>
       <c r="T21" t="n">
-        <v>20675</v>
+        <v>20568</v>
       </c>
       <c r="U21" t="n">
-        <v>22.79</v>
+        <v>23.33</v>
       </c>
       <c r="V21" t="n">
-        <v>15122</v>
+        <v>15099</v>
       </c>
       <c r="W21" t="n">
-        <v>16.67</v>
+        <v>17.12</v>
       </c>
     </row>
     <row r="22">
@@ -6062,46 +5423,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>173679</v>
+        <v>170329</v>
       </c>
       <c r="C22" t="n">
-        <v>85678</v>
+        <v>80493</v>
       </c>
       <c r="D22" t="n">
-        <v>25058</v>
+        <v>21086</v>
       </c>
       <c r="E22" t="n">
-        <v>36803</v>
+        <v>37879</v>
       </c>
       <c r="F22" t="n">
-        <v>116030</v>
+        <v>116808</v>
       </c>
       <c r="G22" t="n">
-        <v>31942</v>
+        <v>30592</v>
       </c>
       <c r="H22" t="n">
-        <v>13335</v>
+        <v>11070</v>
       </c>
       <c r="I22" t="n">
-        <v>5089</v>
+        <v>5925</v>
       </c>
       <c r="J22" t="n">
-        <v>34916</v>
+        <v>36147</v>
       </c>
       <c r="K22" t="n">
-        <v>27795</v>
+        <v>27289</v>
       </c>
       <c r="L22" t="n">
-        <v>77195</v>
+        <v>75996</v>
       </c>
       <c r="M22" t="n">
-        <v>60294</v>
+        <v>57762</v>
       </c>
       <c r="N22" t="n">
-        <v>16280</v>
+        <v>14738</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>45860</v>
+        <v>45867</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
@@ -6114,22 +5475,22 @@
         </is>
       </c>
       <c r="R22" t="n">
-        <v>85678</v>
+        <v>80493</v>
       </c>
       <c r="S22" t="n">
-        <v>25058</v>
+        <v>21086</v>
       </c>
       <c r="T22" t="n">
-        <v>60620</v>
+        <v>59407</v>
       </c>
       <c r="U22" t="n">
-        <v>34.9</v>
+        <v>34.88</v>
       </c>
       <c r="V22" t="n">
-        <v>44014</v>
+        <v>43024</v>
       </c>
       <c r="W22" t="n">
-        <v>25.34</v>
+        <v>25.26</v>
       </c>
     </row>
     <row r="23">
@@ -6139,37 +5500,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29716</v>
+        <v>26149</v>
       </c>
       <c r="C23" t="n">
-        <v>2832</v>
+        <v>2541</v>
       </c>
       <c r="D23" t="n">
-        <v>5768</v>
+        <v>5391</v>
       </c>
       <c r="E23" t="n">
-        <v>26682</v>
+        <v>23275</v>
       </c>
       <c r="F23" t="n">
-        <v>23848</v>
+        <v>20662</v>
       </c>
       <c r="G23" t="n">
-        <v>152</v>
+        <v>283</v>
       </c>
       <c r="H23" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I23" t="n">
-        <v>12180</v>
+        <v>10879</v>
       </c>
       <c r="J23" t="n">
-        <v>21948</v>
+        <v>19049</v>
       </c>
       <c r="K23" t="n">
-        <v>13194</v>
+        <v>11470</v>
       </c>
       <c r="L23" t="n">
-        <v>592</v>
+        <v>687</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -6178,7 +5539,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>45867</v>
+        <v>45874</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
@@ -6191,16 +5552,16 @@
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2832</v>
+        <v>2541</v>
       </c>
       <c r="S23" t="n">
-        <v>5768</v>
+        <v>5391</v>
       </c>
       <c r="T23" t="n">
-        <v>-2936</v>
+        <v>-2850</v>
       </c>
       <c r="U23" t="n">
-        <v>-9.880000000000001</v>
+        <v>-10.9</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -6216,46 +5577,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>228444</v>
+        <v>197933</v>
       </c>
       <c r="C24" t="n">
-        <v>74650</v>
+        <v>54929</v>
       </c>
       <c r="D24" t="n">
-        <v>37303</v>
+        <v>34243</v>
       </c>
       <c r="E24" t="n">
-        <v>67232</v>
+        <v>65903</v>
       </c>
       <c r="F24" t="n">
-        <v>104308</v>
+        <v>98665</v>
       </c>
       <c r="G24" t="n">
-        <v>13915</v>
+        <v>20148</v>
       </c>
       <c r="H24" t="n">
-        <v>14186</v>
+        <v>8072</v>
       </c>
       <c r="I24" t="n">
-        <v>25092</v>
+        <v>21869</v>
       </c>
       <c r="J24" t="n">
-        <v>67474</v>
+        <v>67816</v>
       </c>
       <c r="K24" t="n">
-        <v>30905</v>
+        <v>34074</v>
       </c>
       <c r="L24" t="n">
-        <v>25599</v>
+        <v>20889</v>
       </c>
       <c r="M24" t="n">
-        <v>56672</v>
+        <v>36243</v>
       </c>
       <c r="N24" t="n">
-        <v>20012</v>
+        <v>17994</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>45867</v>
+        <v>45874</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
@@ -6268,22 +5629,22 @@
         </is>
       </c>
       <c r="R24" t="n">
-        <v>74650</v>
+        <v>54929</v>
       </c>
       <c r="S24" t="n">
-        <v>37303</v>
+        <v>34243</v>
       </c>
       <c r="T24" t="n">
-        <v>37347</v>
+        <v>20686</v>
       </c>
       <c r="U24" t="n">
-        <v>16.35</v>
+        <v>10.45</v>
       </c>
       <c r="V24" t="n">
-        <v>36660</v>
+        <v>18249</v>
       </c>
       <c r="W24" t="n">
-        <v>16.05</v>
+        <v>9.220000000000001</v>
       </c>
     </row>
     <row r="25">
@@ -6293,46 +5654,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>182334</v>
+        <v>167430</v>
       </c>
       <c r="C25" t="n">
-        <v>61302</v>
+        <v>61535</v>
       </c>
       <c r="D25" t="n">
-        <v>33065</v>
+        <v>30715</v>
       </c>
       <c r="E25" t="n">
-        <v>87596</v>
+        <v>70734</v>
       </c>
       <c r="F25" t="n">
-        <v>107805</v>
+        <v>97805</v>
       </c>
       <c r="G25" t="n">
-        <v>22843</v>
+        <v>29112</v>
       </c>
       <c r="H25" t="n">
-        <v>30871</v>
+        <v>32861</v>
       </c>
       <c r="I25" t="n">
-        <v>30637</v>
+        <v>19941</v>
       </c>
       <c r="J25" t="n">
-        <v>51481</v>
+        <v>48484</v>
       </c>
       <c r="K25" t="n">
-        <v>48886</v>
+        <v>45970</v>
       </c>
       <c r="L25" t="n">
-        <v>48251</v>
+        <v>44498</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>2776</v>
+        <v>2810</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>45867</v>
+        <v>45874</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
@@ -6345,22 +5706,22 @@
         </is>
       </c>
       <c r="R25" t="n">
-        <v>61302</v>
+        <v>61535</v>
       </c>
       <c r="S25" t="n">
-        <v>33065</v>
+        <v>30715</v>
       </c>
       <c r="T25" t="n">
-        <v>28237</v>
+        <v>30820</v>
       </c>
       <c r="U25" t="n">
-        <v>15.49</v>
+        <v>18.41</v>
       </c>
       <c r="V25" t="n">
-        <v>-2776</v>
+        <v>-2810</v>
       </c>
       <c r="W25" t="n">
-        <v>-1.52</v>
+        <v>-1.68</v>
       </c>
     </row>
     <row r="26">
@@ -6370,46 +5731,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>445259</v>
+        <v>449647</v>
       </c>
       <c r="C26" t="n">
-        <v>281241</v>
+        <v>292194</v>
       </c>
       <c r="D26" t="n">
-        <v>57645</v>
+        <v>55144</v>
       </c>
       <c r="E26" t="n">
-        <v>79093</v>
+        <v>74075</v>
       </c>
       <c r="F26" t="n">
-        <v>338172</v>
+        <v>344221</v>
       </c>
       <c r="G26" t="n">
-        <v>53216</v>
+        <v>52597</v>
       </c>
       <c r="H26" t="n">
-        <v>17733</v>
+        <v>19501</v>
       </c>
       <c r="I26" t="n">
-        <v>12294</v>
+        <v>21760</v>
       </c>
       <c r="J26" t="n">
-        <v>60464</v>
+        <v>55777</v>
       </c>
       <c r="K26" t="n">
-        <v>39149</v>
+        <v>36874</v>
       </c>
       <c r="L26" t="n">
-        <v>250058</v>
+        <v>273003</v>
       </c>
       <c r="M26" t="n">
-        <v>170918</v>
+        <v>186304</v>
       </c>
       <c r="N26" t="n">
-        <v>36662</v>
+        <v>32317</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>45867</v>
+        <v>45874</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
@@ -6422,22 +5783,22 @@
         </is>
       </c>
       <c r="R26" t="n">
-        <v>281241</v>
+        <v>292194</v>
       </c>
       <c r="S26" t="n">
-        <v>57645</v>
+        <v>55144</v>
       </c>
       <c r="T26" t="n">
-        <v>223596</v>
+        <v>237050</v>
       </c>
       <c r="U26" t="n">
-        <v>50.22</v>
+        <v>52.72</v>
       </c>
       <c r="V26" t="n">
-        <v>134256</v>
+        <v>153987</v>
       </c>
       <c r="W26" t="n">
-        <v>30.15</v>
+        <v>34.25</v>
       </c>
     </row>
     <row r="27">
@@ -6447,46 +5808,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>20417</v>
+        <v>19043</v>
       </c>
       <c r="C27" t="n">
-        <v>8997</v>
+        <v>8048</v>
       </c>
       <c r="D27" t="n">
-        <v>10850</v>
+        <v>10383</v>
       </c>
       <c r="E27" t="n">
-        <v>6955</v>
+        <v>6502</v>
       </c>
       <c r="F27" t="n">
-        <v>6449</v>
+        <v>5801</v>
       </c>
       <c r="G27" t="n">
-        <v>3021</v>
+        <v>2850</v>
       </c>
       <c r="H27" t="n">
-        <v>1674</v>
+        <v>1216</v>
       </c>
       <c r="I27" t="n">
-        <v>642</v>
+        <v>698</v>
       </c>
       <c r="J27" t="n">
-        <v>3507</v>
+        <v>3035</v>
       </c>
       <c r="K27" t="n">
-        <v>5945</v>
+        <v>5594</v>
       </c>
       <c r="L27" t="n">
-        <v>2574</v>
+        <v>2556</v>
       </c>
       <c r="M27" t="n">
-        <v>6445</v>
+        <v>5699</v>
       </c>
       <c r="N27" t="n">
-        <v>8484</v>
+        <v>8376</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>45867</v>
+        <v>45874</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
@@ -6499,22 +5860,22 @@
         </is>
       </c>
       <c r="R27" t="n">
-        <v>8997</v>
+        <v>8048</v>
       </c>
       <c r="S27" t="n">
-        <v>10850</v>
+        <v>10383</v>
       </c>
       <c r="T27" t="n">
-        <v>-1853</v>
+        <v>-2335</v>
       </c>
       <c r="U27" t="n">
-        <v>-9.08</v>
+        <v>-12.26</v>
       </c>
       <c r="V27" t="n">
-        <v>-2039</v>
+        <v>-2677</v>
       </c>
       <c r="W27" t="n">
-        <v>-9.99</v>
+        <v>-14.06</v>
       </c>
     </row>
     <row r="28">
@@ -6524,46 +5885,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>88178</v>
+        <v>80547</v>
       </c>
       <c r="C28" t="n">
-        <v>52572</v>
+        <v>46067</v>
       </c>
       <c r="D28" t="n">
-        <v>32004</v>
+        <v>29405</v>
       </c>
       <c r="E28" t="n">
-        <v>17175</v>
+        <v>15414</v>
       </c>
       <c r="F28" t="n">
-        <v>42201</v>
+        <v>38413</v>
       </c>
       <c r="G28" t="n">
-        <v>10005</v>
+        <v>10274</v>
       </c>
       <c r="H28" t="n">
-        <v>5547</v>
+        <v>3937</v>
       </c>
       <c r="I28" t="n">
-        <v>2720</v>
+        <v>2236</v>
       </c>
       <c r="J28" t="n">
-        <v>24742</v>
+        <v>21684</v>
       </c>
       <c r="K28" t="n">
-        <v>13649</v>
+        <v>12587</v>
       </c>
       <c r="L28" t="n">
-        <v>16653</v>
+        <v>16138</v>
       </c>
       <c r="M28" t="n">
-        <v>36926</v>
+        <v>32596</v>
       </c>
       <c r="N28" t="n">
-        <v>21827</v>
+        <v>21955</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>45867</v>
+        <v>45874</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
@@ -6576,22 +5937,22 @@
         </is>
       </c>
       <c r="R28" t="n">
-        <v>52572</v>
+        <v>46067</v>
       </c>
       <c r="S28" t="n">
-        <v>32004</v>
+        <v>29405</v>
       </c>
       <c r="T28" t="n">
-        <v>20568</v>
+        <v>16662</v>
       </c>
       <c r="U28" t="n">
-        <v>23.33</v>
+        <v>20.69</v>
       </c>
       <c r="V28" t="n">
-        <v>15099</v>
+        <v>10641</v>
       </c>
       <c r="W28" t="n">
-        <v>17.12</v>
+        <v>13.21</v>
       </c>
     </row>
     <row r="29">
@@ -6601,46 +5962,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>170329</v>
+        <v>161262</v>
       </c>
       <c r="C29" t="n">
-        <v>80493</v>
+        <v>71234</v>
       </c>
       <c r="D29" t="n">
-        <v>21086</v>
+        <v>20576</v>
       </c>
       <c r="E29" t="n">
-        <v>37879</v>
+        <v>37347</v>
       </c>
       <c r="F29" t="n">
-        <v>116808</v>
+        <v>109575</v>
       </c>
       <c r="G29" t="n">
-        <v>30592</v>
+        <v>31007</v>
       </c>
       <c r="H29" t="n">
-        <v>11070</v>
+        <v>9437</v>
       </c>
       <c r="I29" t="n">
-        <v>5925</v>
+        <v>4912</v>
       </c>
       <c r="J29" t="n">
-        <v>36147</v>
+        <v>33723</v>
       </c>
       <c r="K29" t="n">
-        <v>27289</v>
+        <v>27335</v>
       </c>
       <c r="L29" t="n">
-        <v>75996</v>
+        <v>70752</v>
       </c>
       <c r="M29" t="n">
-        <v>57762</v>
+        <v>45934</v>
       </c>
       <c r="N29" t="n">
-        <v>14738</v>
+        <v>16111</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>45867</v>
+        <v>45874</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
@@ -6653,22 +6014,22 @@
         </is>
       </c>
       <c r="R29" t="n">
-        <v>80493</v>
+        <v>71234</v>
       </c>
       <c r="S29" t="n">
-        <v>21086</v>
+        <v>20576</v>
       </c>
       <c r="T29" t="n">
-        <v>59407</v>
+        <v>50658</v>
       </c>
       <c r="U29" t="n">
-        <v>34.88</v>
+        <v>31.41</v>
       </c>
       <c r="V29" t="n">
-        <v>43024</v>
+        <v>29823</v>
       </c>
       <c r="W29" t="n">
-        <v>25.26</v>
+        <v>18.49</v>
       </c>
     </row>
     <row r="30">
@@ -6678,31 +6039,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>26149</v>
+        <v>26248</v>
       </c>
       <c r="C30" t="n">
-        <v>2541</v>
+        <v>2616</v>
       </c>
       <c r="D30" t="n">
-        <v>5391</v>
+        <v>5406</v>
       </c>
       <c r="E30" t="n">
-        <v>23275</v>
+        <v>23289</v>
       </c>
       <c r="F30" t="n">
-        <v>20662</v>
+        <v>20746</v>
       </c>
       <c r="G30" t="n">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="H30" t="n">
         <v>46</v>
       </c>
       <c r="I30" t="n">
-        <v>10879</v>
+        <v>10823</v>
       </c>
       <c r="J30" t="n">
-        <v>19049</v>
+        <v>19063</v>
       </c>
       <c r="K30" t="n">
         <v>11470</v>
@@ -6717,7 +6078,7 @@
         <v>0</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>45874</v>
+        <v>45881</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
@@ -6730,16 +6091,16 @@
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2541</v>
+        <v>2616</v>
       </c>
       <c r="S30" t="n">
-        <v>5391</v>
+        <v>5406</v>
       </c>
       <c r="T30" t="n">
-        <v>-2850</v>
+        <v>-2790</v>
       </c>
       <c r="U30" t="n">
-        <v>-10.9</v>
+        <v>-10.63</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -6755,46 +6116,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>197933</v>
+        <v>193751</v>
       </c>
       <c r="C31" t="n">
-        <v>54929</v>
+        <v>58802</v>
       </c>
       <c r="D31" t="n">
-        <v>34243</v>
+        <v>30591</v>
       </c>
       <c r="E31" t="n">
-        <v>65903</v>
+        <v>63855</v>
       </c>
       <c r="F31" t="n">
-        <v>98665</v>
+        <v>101888</v>
       </c>
       <c r="G31" t="n">
-        <v>20148</v>
+        <v>19016</v>
       </c>
       <c r="H31" t="n">
-        <v>8072</v>
+        <v>9194</v>
       </c>
       <c r="I31" t="n">
-        <v>21869</v>
+        <v>21966</v>
       </c>
       <c r="J31" t="n">
-        <v>67816</v>
+        <v>71429</v>
       </c>
       <c r="K31" t="n">
-        <v>34074</v>
+        <v>33829</v>
       </c>
       <c r="L31" t="n">
-        <v>20889</v>
+        <v>22399</v>
       </c>
       <c r="M31" t="n">
-        <v>36243</v>
+        <v>39848</v>
       </c>
       <c r="N31" t="n">
-        <v>17994</v>
+        <v>14680</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>45874</v>
+        <v>45881</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
@@ -6807,22 +6168,22 @@
         </is>
       </c>
       <c r="R31" t="n">
-        <v>54929</v>
+        <v>58802</v>
       </c>
       <c r="S31" t="n">
-        <v>34243</v>
+        <v>30591</v>
       </c>
       <c r="T31" t="n">
-        <v>20686</v>
+        <v>28211</v>
       </c>
       <c r="U31" t="n">
-        <v>10.45</v>
+        <v>14.56</v>
       </c>
       <c r="V31" t="n">
-        <v>18249</v>
+        <v>25168</v>
       </c>
       <c r="W31" t="n">
-        <v>9.220000000000001</v>
+        <v>12.99</v>
       </c>
     </row>
     <row r="32">
@@ -6832,37 +6193,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>167430</v>
+        <v>169490</v>
       </c>
       <c r="C32" t="n">
-        <v>61535</v>
+        <v>62855</v>
       </c>
       <c r="D32" t="n">
-        <v>30715</v>
+        <v>30793</v>
       </c>
       <c r="E32" t="n">
-        <v>70734</v>
+        <v>73047</v>
       </c>
       <c r="F32" t="n">
-        <v>97805</v>
+        <v>97988</v>
       </c>
       <c r="G32" t="n">
-        <v>29112</v>
+        <v>27801</v>
       </c>
       <c r="H32" t="n">
-        <v>32861</v>
+        <v>34922</v>
       </c>
       <c r="I32" t="n">
-        <v>19941</v>
+        <v>20172</v>
       </c>
       <c r="J32" t="n">
-        <v>48484</v>
+        <v>48735</v>
       </c>
       <c r="K32" t="n">
-        <v>45970</v>
+        <v>48106</v>
       </c>
       <c r="L32" t="n">
-        <v>44498</v>
+        <v>44484</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -6871,7 +6232,7 @@
         <v>2810</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>45874</v>
+        <v>45881</v>
       </c>
       <c r="P32" t="inlineStr">
         <is>
@@ -6884,22 +6245,22 @@
         </is>
       </c>
       <c r="R32" t="n">
-        <v>61535</v>
+        <v>62855</v>
       </c>
       <c r="S32" t="n">
-        <v>30715</v>
+        <v>30793</v>
       </c>
       <c r="T32" t="n">
-        <v>30820</v>
+        <v>32062</v>
       </c>
       <c r="U32" t="n">
-        <v>18.41</v>
+        <v>18.92</v>
       </c>
       <c r="V32" t="n">
         <v>-2810</v>
       </c>
       <c r="W32" t="n">
-        <v>-1.68</v>
+        <v>-1.66</v>
       </c>
     </row>
     <row r="33">
@@ -6909,46 +6270,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>449647</v>
+        <v>446152</v>
       </c>
       <c r="C33" t="n">
-        <v>292194</v>
+        <v>288115</v>
       </c>
       <c r="D33" t="n">
-        <v>55144</v>
+        <v>58630</v>
       </c>
       <c r="E33" t="n">
-        <v>74075</v>
+        <v>63427</v>
       </c>
       <c r="F33" t="n">
-        <v>344221</v>
+        <v>326492</v>
       </c>
       <c r="G33" t="n">
-        <v>52597</v>
+        <v>53656</v>
       </c>
       <c r="H33" t="n">
-        <v>19501</v>
+        <v>20076</v>
       </c>
       <c r="I33" t="n">
-        <v>21760</v>
+        <v>9324</v>
       </c>
       <c r="J33" t="n">
-        <v>55777</v>
+        <v>49074</v>
       </c>
       <c r="K33" t="n">
-        <v>36874</v>
+        <v>35951</v>
       </c>
       <c r="L33" t="n">
-        <v>273003</v>
+        <v>259266</v>
       </c>
       <c r="M33" t="n">
-        <v>186304</v>
+        <v>182337</v>
       </c>
       <c r="N33" t="n">
-        <v>32317</v>
+        <v>34050</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>45874</v>
+        <v>45881</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
@@ -6961,22 +6322,22 @@
         </is>
       </c>
       <c r="R33" t="n">
-        <v>292194</v>
+        <v>288115</v>
       </c>
       <c r="S33" t="n">
-        <v>55144</v>
+        <v>58630</v>
       </c>
       <c r="T33" t="n">
-        <v>237050</v>
+        <v>229485</v>
       </c>
       <c r="U33" t="n">
-        <v>52.72</v>
+        <v>51.44</v>
       </c>
       <c r="V33" t="n">
-        <v>153987</v>
+        <v>148287</v>
       </c>
       <c r="W33" t="n">
-        <v>34.25</v>
+        <v>33.24</v>
       </c>
     </row>
     <row r="34">
@@ -6986,46 +6347,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19043</v>
+        <v>20191</v>
       </c>
       <c r="C34" t="n">
-        <v>8048</v>
+        <v>8005</v>
       </c>
       <c r="D34" t="n">
-        <v>10383</v>
+        <v>11501</v>
       </c>
       <c r="E34" t="n">
-        <v>6502</v>
+        <v>6891</v>
       </c>
       <c r="F34" t="n">
-        <v>5801</v>
+        <v>5333</v>
       </c>
       <c r="G34" t="n">
-        <v>2850</v>
+        <v>3049</v>
       </c>
       <c r="H34" t="n">
-        <v>1216</v>
+        <v>1111</v>
       </c>
       <c r="I34" t="n">
-        <v>698</v>
+        <v>859</v>
       </c>
       <c r="J34" t="n">
-        <v>3035</v>
+        <v>2714</v>
       </c>
       <c r="K34" t="n">
-        <v>5594</v>
+        <v>5795</v>
       </c>
       <c r="L34" t="n">
-        <v>2556</v>
+        <v>2382</v>
       </c>
       <c r="M34" t="n">
-        <v>5699</v>
+        <v>5223</v>
       </c>
       <c r="N34" t="n">
-        <v>8376</v>
+        <v>10119</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>45874</v>
+        <v>45881</v>
       </c>
       <c r="P34" t="inlineStr">
         <is>
@@ -7038,22 +6399,22 @@
         </is>
       </c>
       <c r="R34" t="n">
-        <v>8048</v>
+        <v>8005</v>
       </c>
       <c r="S34" t="n">
-        <v>10383</v>
+        <v>11501</v>
       </c>
       <c r="T34" t="n">
-        <v>-2335</v>
+        <v>-3496</v>
       </c>
       <c r="U34" t="n">
-        <v>-12.26</v>
+        <v>-17.31</v>
       </c>
       <c r="V34" t="n">
-        <v>-2677</v>
+        <v>-4896</v>
       </c>
       <c r="W34" t="n">
-        <v>-14.06</v>
+        <v>-24.25</v>
       </c>
     </row>
     <row r="35">
@@ -7063,46 +6424,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>80547</v>
+        <v>81726</v>
       </c>
       <c r="C35" t="n">
-        <v>46067</v>
+        <v>47458</v>
       </c>
       <c r="D35" t="n">
-        <v>29405</v>
+        <v>29670</v>
       </c>
       <c r="E35" t="n">
-        <v>15414</v>
+        <v>15571</v>
       </c>
       <c r="F35" t="n">
-        <v>38413</v>
+        <v>38586</v>
       </c>
       <c r="G35" t="n">
-        <v>10274</v>
+        <v>9606</v>
       </c>
       <c r="H35" t="n">
-        <v>3937</v>
+        <v>4379</v>
       </c>
       <c r="I35" t="n">
-        <v>2236</v>
+        <v>2508</v>
       </c>
       <c r="J35" t="n">
-        <v>21684</v>
+        <v>22099</v>
       </c>
       <c r="K35" t="n">
-        <v>12587</v>
+        <v>11978</v>
       </c>
       <c r="L35" t="n">
-        <v>16138</v>
+        <v>15402</v>
       </c>
       <c r="M35" t="n">
-        <v>32596</v>
+        <v>33638</v>
       </c>
       <c r="N35" t="n">
-        <v>21955</v>
+        <v>22603</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>45874</v>
+        <v>45881</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
@@ -7115,22 +6476,22 @@
         </is>
       </c>
       <c r="R35" t="n">
-        <v>46067</v>
+        <v>47458</v>
       </c>
       <c r="S35" t="n">
-        <v>29405</v>
+        <v>29670</v>
       </c>
       <c r="T35" t="n">
-        <v>16662</v>
+        <v>17788</v>
       </c>
       <c r="U35" t="n">
-        <v>20.69</v>
+        <v>21.77</v>
       </c>
       <c r="V35" t="n">
-        <v>10641</v>
+        <v>11035</v>
       </c>
       <c r="W35" t="n">
-        <v>13.21</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="36">
@@ -7140,46 +6501,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>161262</v>
+        <v>156432</v>
       </c>
       <c r="C36" t="n">
-        <v>71234</v>
+        <v>66252</v>
       </c>
       <c r="D36" t="n">
-        <v>20576</v>
+        <v>21984</v>
       </c>
       <c r="E36" t="n">
-        <v>37347</v>
+        <v>41331</v>
       </c>
       <c r="F36" t="n">
-        <v>109575</v>
+        <v>107752</v>
       </c>
       <c r="G36" t="n">
-        <v>31007</v>
+        <v>32647</v>
       </c>
       <c r="H36" t="n">
-        <v>9437</v>
+        <v>10494</v>
       </c>
       <c r="I36" t="n">
-        <v>4912</v>
+        <v>5167</v>
       </c>
       <c r="J36" t="n">
-        <v>33723</v>
+        <v>28177</v>
       </c>
       <c r="K36" t="n">
-        <v>27335</v>
+        <v>26529</v>
       </c>
       <c r="L36" t="n">
-        <v>70752</v>
+        <v>69940</v>
       </c>
       <c r="M36" t="n">
-        <v>45934</v>
+        <v>43854</v>
       </c>
       <c r="N36" t="n">
-        <v>16111</v>
+        <v>16574</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>45874</v>
+        <v>45881</v>
       </c>
       <c r="P36" t="inlineStr">
         <is>
@@ -7192,560 +6553,21 @@
         </is>
       </c>
       <c r="R36" t="n">
-        <v>71234</v>
+        <v>66252</v>
       </c>
       <c r="S36" t="n">
-        <v>20576</v>
+        <v>21984</v>
       </c>
       <c r="T36" t="n">
-        <v>50658</v>
+        <v>44268</v>
       </c>
       <c r="U36" t="n">
-        <v>31.41</v>
+        <v>28.3</v>
       </c>
       <c r="V36" t="n">
-        <v>29823</v>
+        <v>27280</v>
       </c>
       <c r="W36" t="n">
-        <v>18.49</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Aluminium</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>26248</v>
-      </c>
-      <c r="C37" t="n">
-        <v>2616</v>
-      </c>
-      <c r="D37" t="n">
-        <v>5406</v>
-      </c>
-      <c r="E37" t="n">
-        <v>23289</v>
-      </c>
-      <c r="F37" t="n">
-        <v>20746</v>
-      </c>
-      <c r="G37" t="n">
-        <v>293</v>
-      </c>
-      <c r="H37" t="n">
-        <v>46</v>
-      </c>
-      <c r="I37" t="n">
-        <v>10823</v>
-      </c>
-      <c r="J37" t="n">
-        <v>19063</v>
-      </c>
-      <c r="K37" t="n">
-        <v>11470</v>
-      </c>
-      <c r="L37" t="n">
-        <v>687</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" s="2" t="n">
-        <v>45881</v>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>Commodity Futures</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>ALUMINUM</t>
-        </is>
-      </c>
-      <c r="R37" t="n">
-        <v>2616</v>
-      </c>
-      <c r="S37" t="n">
-        <v>5406</v>
-      </c>
-      <c r="T37" t="n">
-        <v>-2790</v>
-      </c>
-      <c r="U37" t="n">
-        <v>-10.63</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Copper</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>193751</v>
-      </c>
-      <c r="C38" t="n">
-        <v>58802</v>
-      </c>
-      <c r="D38" t="n">
-        <v>30591</v>
-      </c>
-      <c r="E38" t="n">
-        <v>63855</v>
-      </c>
-      <c r="F38" t="n">
-        <v>101888</v>
-      </c>
-      <c r="G38" t="n">
-        <v>19016</v>
-      </c>
-      <c r="H38" t="n">
-        <v>9194</v>
-      </c>
-      <c r="I38" t="n">
-        <v>21966</v>
-      </c>
-      <c r="J38" t="n">
-        <v>71429</v>
-      </c>
-      <c r="K38" t="n">
-        <v>33829</v>
-      </c>
-      <c r="L38" t="n">
-        <v>22399</v>
-      </c>
-      <c r="M38" t="n">
-        <v>39848</v>
-      </c>
-      <c r="N38" t="n">
-        <v>14680</v>
-      </c>
-      <c r="O38" s="2" t="n">
-        <v>45881</v>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>Commodity Futures</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>COPPER</t>
-        </is>
-      </c>
-      <c r="R38" t="n">
-        <v>58802</v>
-      </c>
-      <c r="S38" t="n">
-        <v>30591</v>
-      </c>
-      <c r="T38" t="n">
-        <v>28211</v>
-      </c>
-      <c r="U38" t="n">
-        <v>14.56</v>
-      </c>
-      <c r="V38" t="n">
-        <v>25168</v>
-      </c>
-      <c r="W38" t="n">
-        <v>12.99</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Crude Oil</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>169490</v>
-      </c>
-      <c r="C39" t="n">
-        <v>62855</v>
-      </c>
-      <c r="D39" t="n">
-        <v>30793</v>
-      </c>
-      <c r="E39" t="n">
-        <v>73047</v>
-      </c>
-      <c r="F39" t="n">
-        <v>97988</v>
-      </c>
-      <c r="G39" t="n">
-        <v>27801</v>
-      </c>
-      <c r="H39" t="n">
-        <v>34922</v>
-      </c>
-      <c r="I39" t="n">
-        <v>20172</v>
-      </c>
-      <c r="J39" t="n">
-        <v>48735</v>
-      </c>
-      <c r="K39" t="n">
-        <v>48106</v>
-      </c>
-      <c r="L39" t="n">
-        <v>44484</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>2810</v>
-      </c>
-      <c r="O39" s="2" t="n">
-        <v>45881</v>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>Commodity Futures</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>USOIL</t>
-        </is>
-      </c>
-      <c r="R39" t="n">
-        <v>62855</v>
-      </c>
-      <c r="S39" t="n">
-        <v>30793</v>
-      </c>
-      <c r="T39" t="n">
-        <v>32062</v>
-      </c>
-      <c r="U39" t="n">
-        <v>18.92</v>
-      </c>
-      <c r="V39" t="n">
-        <v>-2810</v>
-      </c>
-      <c r="W39" t="n">
-        <v>-1.66</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Gold</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>446152</v>
-      </c>
-      <c r="C40" t="n">
-        <v>288115</v>
-      </c>
-      <c r="D40" t="n">
-        <v>58630</v>
-      </c>
-      <c r="E40" t="n">
-        <v>63427</v>
-      </c>
-      <c r="F40" t="n">
-        <v>326492</v>
-      </c>
-      <c r="G40" t="n">
-        <v>53656</v>
-      </c>
-      <c r="H40" t="n">
-        <v>20076</v>
-      </c>
-      <c r="I40" t="n">
-        <v>9324</v>
-      </c>
-      <c r="J40" t="n">
-        <v>49074</v>
-      </c>
-      <c r="K40" t="n">
-        <v>35951</v>
-      </c>
-      <c r="L40" t="n">
-        <v>259266</v>
-      </c>
-      <c r="M40" t="n">
-        <v>182337</v>
-      </c>
-      <c r="N40" t="n">
-        <v>34050</v>
-      </c>
-      <c r="O40" s="2" t="n">
-        <v>45881</v>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>Commodity Futures</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>XAUUSD</t>
-        </is>
-      </c>
-      <c r="R40" t="n">
-        <v>288115</v>
-      </c>
-      <c r="S40" t="n">
-        <v>58630</v>
-      </c>
-      <c r="T40" t="n">
-        <v>229485</v>
-      </c>
-      <c r="U40" t="n">
-        <v>51.44</v>
-      </c>
-      <c r="V40" t="n">
-        <v>148287</v>
-      </c>
-      <c r="W40" t="n">
-        <v>33.24</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Palladium</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>20191</v>
-      </c>
-      <c r="C41" t="n">
-        <v>8005</v>
-      </c>
-      <c r="D41" t="n">
-        <v>11501</v>
-      </c>
-      <c r="E41" t="n">
-        <v>6891</v>
-      </c>
-      <c r="F41" t="n">
-        <v>5333</v>
-      </c>
-      <c r="G41" t="n">
-        <v>3049</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1111</v>
-      </c>
-      <c r="I41" t="n">
-        <v>859</v>
-      </c>
-      <c r="J41" t="n">
-        <v>2714</v>
-      </c>
-      <c r="K41" t="n">
-        <v>5795</v>
-      </c>
-      <c r="L41" t="n">
-        <v>2382</v>
-      </c>
-      <c r="M41" t="n">
-        <v>5223</v>
-      </c>
-      <c r="N41" t="n">
-        <v>10119</v>
-      </c>
-      <c r="O41" s="2" t="n">
-        <v>45881</v>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>Commodity Futures</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>XPDUSD</t>
-        </is>
-      </c>
-      <c r="R41" t="n">
-        <v>8005</v>
-      </c>
-      <c r="S41" t="n">
-        <v>11501</v>
-      </c>
-      <c r="T41" t="n">
-        <v>-3496</v>
-      </c>
-      <c r="U41" t="n">
-        <v>-17.31</v>
-      </c>
-      <c r="V41" t="n">
-        <v>-4896</v>
-      </c>
-      <c r="W41" t="n">
-        <v>-24.25</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Platinum</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>81726</v>
-      </c>
-      <c r="C42" t="n">
-        <v>47458</v>
-      </c>
-      <c r="D42" t="n">
-        <v>29670</v>
-      </c>
-      <c r="E42" t="n">
-        <v>15571</v>
-      </c>
-      <c r="F42" t="n">
-        <v>38586</v>
-      </c>
-      <c r="G42" t="n">
-        <v>9606</v>
-      </c>
-      <c r="H42" t="n">
-        <v>4379</v>
-      </c>
-      <c r="I42" t="n">
-        <v>2508</v>
-      </c>
-      <c r="J42" t="n">
-        <v>22099</v>
-      </c>
-      <c r="K42" t="n">
-        <v>11978</v>
-      </c>
-      <c r="L42" t="n">
-        <v>15402</v>
-      </c>
-      <c r="M42" t="n">
-        <v>33638</v>
-      </c>
-      <c r="N42" t="n">
-        <v>22603</v>
-      </c>
-      <c r="O42" s="2" t="n">
-        <v>45881</v>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>Commodity Futures</t>
-        </is>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>XPTUSD</t>
-        </is>
-      </c>
-      <c r="R42" t="n">
-        <v>47458</v>
-      </c>
-      <c r="S42" t="n">
-        <v>29670</v>
-      </c>
-      <c r="T42" t="n">
-        <v>17788</v>
-      </c>
-      <c r="U42" t="n">
-        <v>21.77</v>
-      </c>
-      <c r="V42" t="n">
-        <v>11035</v>
-      </c>
-      <c r="W42" t="n">
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Silver</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>156432</v>
-      </c>
-      <c r="C43" t="n">
-        <v>66252</v>
-      </c>
-      <c r="D43" t="n">
-        <v>21984</v>
-      </c>
-      <c r="E43" t="n">
-        <v>41331</v>
-      </c>
-      <c r="F43" t="n">
-        <v>107752</v>
-      </c>
-      <c r="G43" t="n">
-        <v>32647</v>
-      </c>
-      <c r="H43" t="n">
-        <v>10494</v>
-      </c>
-      <c r="I43" t="n">
-        <v>5167</v>
-      </c>
-      <c r="J43" t="n">
-        <v>28177</v>
-      </c>
-      <c r="K43" t="n">
-        <v>26529</v>
-      </c>
-      <c r="L43" t="n">
-        <v>69940</v>
-      </c>
-      <c r="M43" t="n">
-        <v>43854</v>
-      </c>
-      <c r="N43" t="n">
-        <v>16574</v>
-      </c>
-      <c r="O43" s="2" t="n">
-        <v>45881</v>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>Commodity Futures</t>
-        </is>
-      </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>XAGUSD</t>
-        </is>
-      </c>
-      <c r="R43" t="n">
-        <v>66252</v>
-      </c>
-      <c r="S43" t="n">
-        <v>21984</v>
-      </c>
-      <c r="T43" t="n">
-        <v>44268</v>
-      </c>
-      <c r="U43" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="V43" t="n">
-        <v>27280</v>
-      </c>
-      <c r="W43" t="n">
         <v>17.44</v>
       </c>
     </row>
